--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_653.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_653.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32859-d10052160-Reviews-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>91</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Residence-Inn-Los-Angeles-PasadenaOld-Town.h13578977.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_653.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_653.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1133 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r589529236-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>32859</t>
+  </si>
+  <si>
+    <t>10052160</t>
+  </si>
+  <si>
+    <t>589529236</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>So I’m still not sure why I chose to stay here. Tried to decide what would be best. We only stayed one night so nothing special. The hotel itself was clean and sufficient. It was the staff. The front desk agents were not friendly at all. It was if we were bothering them. No smiles no thank you for visiting. Just robotic people. Maybe I’m expecting too much but a hello thank you for visiting our hotel would be great. The breakfast was nice and clean and the attendants there were friendly so maybe they should be at the front desk. MoreShow less</t>
+  </si>
+  <si>
+    <t>Joker S, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>So I’m still not sure why I chose to stay here. Tried to decide what would be best. We only stayed one night so nothing special. The hotel itself was clean and sufficient. It was the staff. The front desk agents were not friendly at all. It was if we were bothering them. No smiles no thank you for visiting. Just robotic people. Maybe I’m expecting too much but a hello thank you for visiting our hotel would be great. The breakfast was nice and clean and the attendants there were friendly so maybe they should be at the front desk. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r588917547-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>588917547</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>AlienCon Convention</t>
+  </si>
+  <si>
+    <t>Everyone we encounter at this hotel were extremely pleasant.  The rooms, in my opinion, are great.  We are not the most high maintenance of people when traveling, so having a kitchen in the room made it a 4 Star for us.  Being vegetarian, we prefer to cook ourselves so having a kitchen was a nice bonus to the trip.   We had a room on the 2nd floor facing Walnut Street, and did not hear the traffic at all.  I do like the fact this is a "Pet" friendly hotel.  Smart and Final, should you need groceries, is a block away.  Restaurants and other attractions are very close by.  For us, everything was in walking distance.  Next time we are in Pasadena, we will be staying at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Everyone we encounter at this hotel were extremely pleasant.  The rooms, in my opinion, are great.  We are not the most high maintenance of people when traveling, so having a kitchen in the room made it a 4 Star for us.  Being vegetarian, we prefer to cook ourselves so having a kitchen was a nice bonus to the trip.   We had a room on the 2nd floor facing Walnut Street, and did not hear the traffic at all.  I do like the fact this is a "Pet" friendly hotel.  Smart and Final, should you need groceries, is a block away.  Restaurants and other attractions are very close by.  For us, everything was in walking distance.  Next time we are in Pasadena, we will be staying at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r588445223-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>588445223</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>Modern, well staffed an well maintained. On site parking  (for a fee). Nice designed suites, attractive lobby. Easily walk to shops and restaurants in Old Town. Super staff from the Front Desk to the breakfast/lounge area. If you are a light sleeper, you should request room of rear of building away from Fair Oaks Blvd.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r581478850-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>581478850</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Swift Concert </t>
+  </si>
+  <si>
+    <t>Took my daughter to her first concert. Wanted to do something special. Meet my expectations. Very nice stay.  Staff extremely accommodating even during a sold out weekend. Early check in and late check out.  Room was excellent. Could not have asked for more. Worth every penny! Thanks MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Joker S, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Took my daughter to her first concert. Wanted to do something special. Meet my expectations. Very nice stay.  Staff extremely accommodating even during a sold out weekend. Early check in and late check out.  Room was excellent. Could not have asked for more. Worth every penny! Thanks More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r579145355-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>579145355</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Clean, great rooms, good staff.  I went for business, really enjoyed the "mixers" in the evening with food and beverages.  Great location in Old Pasadena.  I have stayed at the Marriott across the street in the past but this place is even better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r574974250-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>574974250</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>New property and a great staff</t>
+  </si>
+  <si>
+    <t>Spent nearly eight weeks here over 4 separate stays. I use mobile check-in/check-out, which makes it very easy. Staff are always friendly and helpful. Special call out to Stephanie at the front desk and Debbie at the breakfast area. Rooms are nice and large - especially, for an extended stay or for families with kids or pets. Breakfast is good - decent variety of hot and cold offerings. Beds are comfortable and the bathroom /shower area is large. There's a regular size fridge, microwave and utensils are provided - similar to any other Residence Inns. Large smart TV in all rooms is very helpful to unwind after along day. Exercise room and outdoor pool are really nice. There are plenty of places to eat nearby - walking distance. As others have noted, there may be a couple of things to be aware of... Lot of parking available in the basement, but be careful of the sharp turns needed to get in and out (room key required). Closet space is little limited (for extended stay travelers).  Overall, highly recommend and I'd stay here anytime during my visits to this area!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Joker S, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Spent nearly eight weeks here over 4 separate stays. I use mobile check-in/check-out, which makes it very easy. Staff are always friendly and helpful. Special call out to Stephanie at the front desk and Debbie at the breakfast area. Rooms are nice and large - especially, for an extended stay or for families with kids or pets. Breakfast is good - decent variety of hot and cold offerings. Beds are comfortable and the bathroom /shower area is large. There's a regular size fridge, microwave and utensils are provided - similar to any other Residence Inns. Large smart TV in all rooms is very helpful to unwind after along day. Exercise room and outdoor pool are really nice. There are plenty of places to eat nearby - walking distance. As others have noted, there may be a couple of things to be aware of... Lot of parking available in the basement, but be careful of the sharp turns needed to get in and out (room key required). Closet space is little limited (for extended stay travelers).  Overall, highly recommend and I'd stay here anytime during my visits to this area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r570219281-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>570219281</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Love the Rooms</t>
+  </si>
+  <si>
+    <t>Having to travel to LA frequently, I love to stay at the Pasadena Residence Inn. The rooms are great - large with a kitchen, location on the main street with access to so many restaurants and shops easily walkable.  If you don't mind not being in LA proper, I recommend this hotel. It's really not a bad drive into LA, if you know when to avoid the traffic gridlock.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Having to travel to LA frequently, I love to stay at the Pasadena Residence Inn. The rooms are great - large with a kitchen, location on the main street with access to so many restaurants and shops easily walkable.  If you don't mind not being in LA proper, I recommend this hotel. It's really not a bad drive into LA, if you know when to avoid the traffic gridlock.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r566691387-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>566691387</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Nice place, free breakfast and more!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for about 5 days.  It was convenient to where we needed to go on this trip.  The staff that works here is very committed to making sure you have a good stay.  In the elevator they post the weeks activities, events they organize to add some fun to your trip.  Cookouts, cocktails, etc... It builds a sense of community, which I think is a good thing.
+The rooms are fine, nothing really different from most Residence Inn’s.  You have a small kitchen, with a full sized fridge, and freezer.  They also have a cooktop if you want to use that or the microwave. But with free Breakfast everyday (open till 9:00am during the week) you might not need to do more than pop some popcorn!
+The bed is very comfortable.  The shower is beautiful, but I found myself constantly trying to get the temperature to stay at a consistent degree. And the water pressure is very low.  Might be the building going on next door? Large screen HD TV, which you can watch, or use it to see Netflix, hulu, etc...
+Parking is provided, but there is a slight cost.  Sometimes you can get lucky and park in the few spots right by the main entrance.  Otherwise your hotel key will admit you to the additional parking downstairs.  With the elevators, it’s fine to be on a lower parking level.
+So, in summary: Great location...We stayed at this hotel for about 5 days.  It was convenient to where we needed to go on this trip.  The staff that works here is very committed to making sure you have a good stay.  In the elevator they post the weeks activities, events they organize to add some fun to your trip.  Cookouts, cocktails, etc... It builds a sense of community, which I think is a good thing.The rooms are fine, nothing really different from most Residence Inn’s.  You have a small kitchen, with a full sized fridge, and freezer.  They also have a cooktop if you want to use that or the microwave. But with free Breakfast everyday (open till 9:00am during the week) you might not need to do more than pop some popcorn!The bed is very comfortable.  The shower is beautiful, but I found myself constantly trying to get the temperature to stay at a consistent degree. And the water pressure is very low.  Might be the building going on next door? Large screen HD TV, which you can watch, or use it to see Netflix, hulu, etc...Parking is provided, but there is a slight cost.  Sometimes you can get lucky and park in the few spots right by the main entrance.  Otherwise your hotel key will admit you to the additional parking downstairs.  With the elevators, it’s fine to be on a lower parking level.So, in summary: Great location (right off the 134), superior staff of highly motivated folks.  Makes you feel like home! Pricing was in line with other hotels, but the free breakfast and other stuff reduces the overall cost. Amenities are good.  There is a pool and fitness center, two desktop computers in the lobby which are free to use or print boarding passes.I will stay here again on my next trip to LA, which could be in 4-5 months.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded March 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for about 5 days.  It was convenient to where we needed to go on this trip.  The staff that works here is very committed to making sure you have a good stay.  In the elevator they post the weeks activities, events they organize to add some fun to your trip.  Cookouts, cocktails, etc... It builds a sense of community, which I think is a good thing.
+The rooms are fine, nothing really different from most Residence Inn’s.  You have a small kitchen, with a full sized fridge, and freezer.  They also have a cooktop if you want to use that or the microwave. But with free Breakfast everyday (open till 9:00am during the week) you might not need to do more than pop some popcorn!
+The bed is very comfortable.  The shower is beautiful, but I found myself constantly trying to get the temperature to stay at a consistent degree. And the water pressure is very low.  Might be the building going on next door? Large screen HD TV, which you can watch, or use it to see Netflix, hulu, etc...
+Parking is provided, but there is a slight cost.  Sometimes you can get lucky and park in the few spots right by the main entrance.  Otherwise your hotel key will admit you to the additional parking downstairs.  With the elevators, it’s fine to be on a lower parking level.
+So, in summary: Great location...We stayed at this hotel for about 5 days.  It was convenient to where we needed to go on this trip.  The staff that works here is very committed to making sure you have a good stay.  In the elevator they post the weeks activities, events they organize to add some fun to your trip.  Cookouts, cocktails, etc... It builds a sense of community, which I think is a good thing.The rooms are fine, nothing really different from most Residence Inn’s.  You have a small kitchen, with a full sized fridge, and freezer.  They also have a cooktop if you want to use that or the microwave. But with free Breakfast everyday (open till 9:00am during the week) you might not need to do more than pop some popcorn!The bed is very comfortable.  The shower is beautiful, but I found myself constantly trying to get the temperature to stay at a consistent degree. And the water pressure is very low.  Might be the building going on next door? Large screen HD TV, which you can watch, or use it to see Netflix, hulu, etc...Parking is provided, but there is a slight cost.  Sometimes you can get lucky and park in the few spots right by the main entrance.  Otherwise your hotel key will admit you to the additional parking downstairs.  With the elevators, it’s fine to be on a lower parking level.So, in summary: Great location (right off the 134), superior staff of highly motivated folks.  Makes you feel like home! Pricing was in line with other hotels, but the free breakfast and other stuff reduces the overall cost. Amenities are good.  There is a pool and fitness center, two desktop computers in the lobby which are free to use or print boarding passes.I will stay here again on my next trip to LA, which could be in 4-5 months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r566095647-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>566095647</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noisy, cleaning crew kept our satchel. </t>
+  </si>
+  <si>
+    <t>Busy corner location on freeway and streets. Asked for quiet room and was NOT given a room on the patio/pool side of the hotel. Left a satchel with scissors and medical bandages in the room, when called after we left, we were told that cleaning staff had NOT turned in our belongings. Thin walls, could hear talking and snoring in adjacent room. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Busy corner location on freeway and streets. Asked for quiet room and was NOT given a room on the patio/pool side of the hotel. Left a satchel with scissors and medical bandages in the room, when called after we left, we were told that cleaning staff had NOT turned in our belongings. Thin walls, could hear talking and snoring in adjacent room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r563441912-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>563441912</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Great Stay in Pasadena</t>
+  </si>
+  <si>
+    <t>The hotel was clean and modern.  We didn't use it but our room had a stove, ref, dishwasher, and microwave oven.  We did use the coffee maker.  The hotel provides free coffee in the room, as well as popcorn (for the microwave).  The room is huge and very comfortable.  The staff at the hotel made the difference.  The hotel provides free breakfast.  The staff was attentive and replaced all items as they were running out.  You didn't need to "catch" their attention if the coffee was low, etc.  The front desk was also very pleasant every day (I stayed for 7 days).  The parking was convenient.  The local is a couple of blocks from Colorado Blvd but the walk was not a problem.  Definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded March 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was clean and modern.  We didn't use it but our room had a stove, ref, dishwasher, and microwave oven.  We did use the coffee maker.  The hotel provides free coffee in the room, as well as popcorn (for the microwave).  The room is huge and very comfortable.  The staff at the hotel made the difference.  The hotel provides free breakfast.  The staff was attentive and replaced all items as they were running out.  You didn't need to "catch" their attention if the coffee was low, etc.  The front desk was also very pleasant every day (I stayed for 7 days).  The parking was convenient.  The local is a couple of blocks from Colorado Blvd but the walk was not a problem.  Definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r562232463-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>562232463</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>A True Home Away From Home</t>
+  </si>
+  <si>
+    <t>The staff were absolutely amazing. They helped accommodate me and my requests throughout my stay. I especially enjoyed how they made me feel at home at the hotel over the week I spent there. The facilities were very well kept and new and the rooms themselves were amazing. The suites have everything you need and they are of a good size and are very modern. The hotel is very clean and caters to a wide variety of people. Overall, I would be more then happy to return to this hotel if I am ever in the area again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded February 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2018</t>
+  </si>
+  <si>
+    <t>The staff were absolutely amazing. They helped accommodate me and my requests throughout my stay. I especially enjoyed how they made me feel at home at the hotel over the week I spent there. The facilities were very well kept and new and the rooms themselves were amazing. The suites have everything you need and they are of a good size and are very modern. The hotel is very clean and caters to a wide variety of people. Overall, I would be more then happy to return to this hotel if I am ever in the area again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r559721516-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>559721516</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Like a Second Home</t>
+  </si>
+  <si>
+    <t>This Residence Inn truly lives up to its name in what it provides. The rooms are very spacious making it easy to get my work and phone calls done, and the hotel itself is very centrally located to Old Town making it just an easy walk away. The breakfast and evening dinners were superb. Looking to make this my #1 choice for whenever I visit Pasadena. Well done, Residence Inn Pasadena/Old Town team.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r551360828-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>551360828</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Comfortable stay, great staff</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn in Pasadena on Christmas Eve and Christmas night. The staff there is very professional, courteous, and extremely helpful. We had a very comfortable, stylis  studio suite room  and both of us had a great sleep both nights!  We had a little plumbing snafu the first morning that was addressed immediately. The breakfast was delicious and that there is plenty of seating but the actual service area is a bit tight. The location is perfect for shopping and Old Town Pasadena. There are many great restaurants just down the street. Plenty of parking and love the free Internet!MoreShow less</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded January 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn in Pasadena on Christmas Eve and Christmas night. The staff there is very professional, courteous, and extremely helpful. We had a very comfortable, stylis  studio suite room  and both of us had a great sleep both nights!  We had a little plumbing snafu the first morning that was addressed immediately. The breakfast was delicious and that there is plenty of seating but the actual service area is a bit tight. The location is perfect for shopping and Old Town Pasadena. There are many great restaurants just down the street. Plenty of parking and love the free Internet!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r549084390-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>549084390</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacious room, excellent facilities </t>
+  </si>
+  <si>
+    <t>The lobby of the hotel is very tourist friendly. They have cucumber infused ice water and orange infused ice water. Much needed after a long drive to the hotel! The room was very big, with an open kitchen. The utilities in the kitchen is very complete as well.  There's complementary breakfast from 6:30-9:30am, which gives you sufficient time in the morning. The plugs in the room is very user friendly! They have a USB plug which enables you to charge your phone directly with the USB cable, and not needing to buy an American adapter. The swimming pool is quite small, but good enough for a quick dip. The gym is simple, but quite complete - treadmill, cross trainer, bike, free weights, multipurpose bar, and balance balls. The hotel is also walking distance to the Old Pasadena town, with lots of shops and restaurants near by. Very convenient. I will definitely recommend this hotel. Extremely nice staff and house-keepers, clean and hygienic room, and full facilities available for travellers! MoreShow less</t>
+  </si>
+  <si>
+    <t>The lobby of the hotel is very tourist friendly. They have cucumber infused ice water and orange infused ice water. Much needed after a long drive to the hotel! The room was very big, with an open kitchen. The utilities in the kitchen is very complete as well.  There's complementary breakfast from 6:30-9:30am, which gives you sufficient time in the morning. The plugs in the room is very user friendly! They have a USB plug which enables you to charge your phone directly with the USB cable, and not needing to buy an American adapter. The swimming pool is quite small, but good enough for a quick dip. The gym is simple, but quite complete - treadmill, cross trainer, bike, free weights, multipurpose bar, and balance balls. The hotel is also walking distance to the Old Pasadena town, with lots of shops and restaurants near by. Very convenient. I will definitely recommend this hotel. Extremely nice staff and house-keepers, clean and hygienic room, and full facilities available for travellers! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r547035263-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>547035263</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Tricky parking</t>
+  </si>
+  <si>
+    <t>I enjoy staying at Residence Inn's.  I had to be in the area for a legal matter, and stayed here as it was near the courthouse.  The woman who checked me in was great - she answered my questions about local places to get a quick bit (this was after 8pm). She even went as far as to print out local maps with directions.  I forgot to pack my toothpaste - no problem, I was provided several packets of toothpaste.  My room met my expectations, as did breakfast.The only funky thing was the onsite parking.  You need your room key to enter and exit the parking lot that is underground.  I had no trouble entering, but there is a tight turn when you exit, and reaching the scanning device was difficult.  I had to back up the first time, the second time I opened the door and got out of my car.  Also, I usually leave the room key in my room when I check out - but if I did, would I be able to exit the parking lot?  So that makes checking out a bit odd as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded December 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2017</t>
+  </si>
+  <si>
+    <t>I enjoy staying at Residence Inn's.  I had to be in the area for a legal matter, and stayed here as it was near the courthouse.  The woman who checked me in was great - she answered my questions about local places to get a quick bit (this was after 8pm). She even went as far as to print out local maps with directions.  I forgot to pack my toothpaste - no problem, I was provided several packets of toothpaste.  My room met my expectations, as did breakfast.The only funky thing was the onsite parking.  You need your room key to enter and exit the parking lot that is underground.  I had no trouble entering, but there is a tight turn when you exit, and reaching the scanning device was difficult.  I had to back up the first time, the second time I opened the door and got out of my car.  Also, I usually leave the room key in my room when I check out - but if I did, would I be able to exit the parking lot?  So that makes checking out a bit odd as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r542876754-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>542876754</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well maintained hotel in Pasadena </t>
+  </si>
+  <si>
+    <t>Stayed here one night in a junior suite. The on-site parking is expensive, $20 for a day. But the gym is decent and the shower in the junior suite was very nice and a walk in shower. Complimentary breakfast is included and has a variety of items and overall delicious.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded November 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here one night in a junior suite. The on-site parking is expensive, $20 for a day. But the gym is decent and the shower in the junior suite was very nice and a walk in shower. Complimentary breakfast is included and has a variety of items and overall delicious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r541247577-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>541247577</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Very nice and great location!</t>
+  </si>
+  <si>
+    <t>Spent 6 nights here while taking my mom around the LA area to visit family. The rooms are great since the hotel is pretty new! Very comfortable and perfect location. Lots of nice restaurants to choose from within walking distance. Gym was nice too! Breakfast buffet was average but pretty much as expected for an included meal. Only other complaint is that a few of the nights the road noise was kind of bad.Over all great place to stay!  Will definitely stay again the next time we are in the Pasadena area!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Desk Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Spent 6 nights here while taking my mom around the LA area to visit family. The rooms are great since the hotel is pretty new! Very comfortable and perfect location. Lots of nice restaurants to choose from within walking distance. Gym was nice too! Breakfast buffet was average but pretty much as expected for an included meal. Only other complaint is that a few of the nights the road noise was kind of bad.Over all great place to stay!  Will definitely stay again the next time we are in the Pasadena area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r540031429-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>540031429</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Wobbly check-in.  But great save, Joseph!</t>
+  </si>
+  <si>
+    <t>We experienced an unusually long delay in check-in, allegedly due to a “staff meeting” earlier in the day.  Umm...sure.  Okay.  We reached the point that we were seriously considering going to the Marriott Courtyard across the street instead.  Thankfully I spotted Joseph behind the check-in desk.  I could tell by his professional demeanor that he was the guy who I could solve this problem.  And solve it he did.  Somehow Joseph managed to find us a fabulous corner suite.  The next morning we saw Joseph at breakfast and he checked with us to make sure that everything was completely satisfactory with our room.  A special citation for exceptional service should go to Joseph.  He is the reason we remain loyal, satisfied guests of Marriott.  Great room, comfortable beds, clean kitchenette and bathrooms, too.  I would definitely stay here next time I’m in Pasadena.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2017</t>
+  </si>
+  <si>
+    <t>We experienced an unusually long delay in check-in, allegedly due to a “staff meeting” earlier in the day.  Umm...sure.  Okay.  We reached the point that we were seriously considering going to the Marriott Courtyard across the street instead.  Thankfully I spotted Joseph behind the check-in desk.  I could tell by his professional demeanor that he was the guy who I could solve this problem.  And solve it he did.  Somehow Joseph managed to find us a fabulous corner suite.  The next morning we saw Joseph at breakfast and he checked with us to make sure that everything was completely satisfactory with our room.  A special citation for exceptional service should go to Joseph.  He is the reason we remain loyal, satisfied guests of Marriott.  Great room, comfortable beds, clean kitchenette and bathrooms, too.  I would definitely stay here next time I’m in Pasadena.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r531749195-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>531749195</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night while in Pasadena attending a concert at the Rose Bowl.  Friendly staff, clean (and spacious) room, convenient parking.Note: it is a struggle getting back to this hotel (or any, really) from the Rose Bowl, so we chose to walk.  If you do so, it's approximately a 45 minute walk, but that would be the same from any Old Town Pasadena hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Maritza M, Front Office Supervisor at Residence Inn Los Angeles Pasadena/Old Town, responded to this reviewResponded November 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night while in Pasadena attending a concert at the Rose Bowl.  Friendly staff, clean (and spacious) room, convenient parking.Note: it is a struggle getting back to this hotel (or any, really) from the Rose Bowl, so we chose to walk.  If you do so, it's approximately a 45 minute walk, but that would be the same from any Old Town Pasadena hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r529165064-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>529165064</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Dont EVER stay here</t>
+  </si>
+  <si>
+    <t>I wish zero was an option bevause they don't even deserve a 1. Never in my life have I been treated so poorly!!!!  I attempted to check in late on a Wednesday night.  My bank, in an effort to protect me,  blocked my card, in case of fraudulent activity.  I had no other card with me, because I didn't expect any issues.  Long story short, I wasn't allowed to check in,  I wasnt even welcomed in the lobby,  I just took that liberty after him saying ' I can't have people in the lobby', yet there were several couches,  chairs and benches everywhere. I reminded him that I am a Platinum Elite member-which meant nothing to him, obviously.  Finally, after little help,  I called the Reservation line,  who encouraged me to get a credit card authorization from a trusted friend/spouse. Ok.  I began working  on that. Got that taken care of, and Ryan, THE MOST HORRIBLE CUSTOMER SERVICE PERSON EVER  lied and said it had to be from a business.  I am a business owner! I was treated like scum,  in a place that I've spent thousands.   Marriott,  youmight want to consider how horrible your staff is and get it together!!! I've alerted my colleagues and family members about your ridiculousness.  I hope you feel it!  P. S.  I travel for work weekly. Guess where I'm NOT staying this week? #marriottsucksnowMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>I wish zero was an option bevause they don't even deserve a 1. Never in my life have I been treated so poorly!!!!  I attempted to check in late on a Wednesday night.  My bank, in an effort to protect me,  blocked my card, in case of fraudulent activity.  I had no other card with me, because I didn't expect any issues.  Long story short, I wasn't allowed to check in,  I wasnt even welcomed in the lobby,  I just took that liberty after him saying ' I can't have people in the lobby', yet there were several couches,  chairs and benches everywhere. I reminded him that I am a Platinum Elite member-which meant nothing to him, obviously.  Finally, after little help,  I called the Reservation line,  who encouraged me to get a credit card authorization from a trusted friend/spouse. Ok.  I began working  on that. Got that taken care of, and Ryan, THE MOST HORRIBLE CUSTOMER SERVICE PERSON EVER  lied and said it had to be from a business.  I am a business owner! I was treated like scum,  in a place that I've spent thousands.   Marriott,  youmight want to consider how horrible your staff is and get it together!!! I've alerted my colleagues and family members about your ridiculousness.  I hope you feel it!  P. S.  I travel for work weekly. Guess where I'm NOT staying this week? #marriottsucksnowMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r527139139-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>527139139</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>LOVED IT!</t>
+  </si>
+  <si>
+    <t>Beautifully designed Residence Inn, familiar yet way better and more contemporary.  Rooms have everything including comfy beds and Pacific Coast Down pillows that are full size (unlike many Marriotts). Excellent climate control, large shower and bathroom, only thing missing was an in room safe which is important for swimming and the like.  Very nice pool and pool deck with lots of seating, grills, lawn chess and fire pits.  Breakfast was outstanding and Debbie was very friendly and helpful as were the front desk staff Sheila and Raymond.  Will definitely stay again and look forward to it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r520034420-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>520034420</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>A surprise at the design and feel</t>
+  </si>
+  <si>
+    <t>The hotel looks way above the typical Residence Inn with its updates and furnishing. Inside the rooms, the layouts look familiar, but much newer and feels much cleaner. The location is also very convenient and easy to find. Not much noise either. This hotel will be one of my go-to place when I go visit again in that area.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r519116698-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>519116698</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Pet friendly</t>
+  </si>
+  <si>
+    <t>I have a 12 years old cat.  On a website, they said they are pet friendly.  When I checked in, I was nice enough to let the front desk know that I have a cat and warn that when the cleaning lady comes in, they would make sure my cat is kept inside.  Instead, they gave me the pet agreement that I must follow EVERYTHING like I have to make sure the hotel stays tidy and kind of perfect with no minor damage.  I was terrified in signing the agreement.  Then they said I must pay $125 pet service per stay.  If I had known or they were honest prior to my check in, I would not check in at all.  I am stressed and look forward to moving out and not coming back at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>I have a 12 years old cat.  On a website, they said they are pet friendly.  When I checked in, I was nice enough to let the front desk know that I have a cat and warn that when the cleaning lady comes in, they would make sure my cat is kept inside.  Instead, they gave me the pet agreement that I must follow EVERYTHING like I have to make sure the hotel stays tidy and kind of perfect with no minor damage.  I was terrified in signing the agreement.  Then they said I must pay $125 pet service per stay.  If I had known or they were honest prior to my check in, I would not check in at all.  I am stressed and look forward to moving out and not coming back at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r518317240-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>518317240</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Good value, centrally located</t>
+  </si>
+  <si>
+    <t>This was a good property, very centrally located to many attractions and points of interest. The rooms were clean and the beds very good. Parking is in a structure that is attached to the hotel, you park on the same level as your room and walk onto your floor...very convenient. We spent the day in LA and this was a lot cheaper than staying closer in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r503313021-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>503313021</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Modern Suite in a Big Box Hotel</t>
+  </si>
+  <si>
+    <t>Unlike other recent reviewers, we found the Residence Inn to be clean and quiet, even though it is near the highway. (We stayed on a Friday night.) Our room was surprisingly modern, comfortable and well-equipped with a full kitchen and sofa bed. The breakfast was good and well-stocked, though the space was crowded. It is a couple of blocks from the Old Town with plenty of good restaurants and cafes. We also visited The Gamble House while in Pasadena, which was only a 5 min drive. Finding the entrance into the parking lot from the highway was a bit confusing and the path from the lot into the hotel was a little funky. All in all, a good place for a stopover.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Unlike other recent reviewers, we found the Residence Inn to be clean and quiet, even though it is near the highway. (We stayed on a Friday night.) Our room was surprisingly modern, comfortable and well-equipped with a full kitchen and sofa bed. The breakfast was good and well-stocked, though the space was crowded. It is a couple of blocks from the Old Town with plenty of good restaurants and cafes. We also visited The Gamble House while in Pasadena, which was only a 5 min drive. Finding the entrance into the parking lot from the highway was a bit confusing and the path from the lot into the hotel was a little funky. All in all, a good place for a stopover.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r500078032-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>500078032</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Disappointing!!!</t>
+  </si>
+  <si>
+    <t>We stay here on our way to San Francisco. We are  really disappointed about this  Hotel.  It is not well maintained. The Carpets are dirty in the complete  Hotel. Our  Room was stinking. The  Carpet is disgusting dirty. We don't want to set our feet on it. The furniture are demolished. There are even no Coffee in the Lobby, as in other Residence Inn. Last but not least there is a big construction area wall to wall. The price is not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>We stay here on our way to San Francisco. We are  really disappointed about this  Hotel.  It is not well maintained. The Carpets are dirty in the complete  Hotel. Our  Room was stinking. The  Carpet is disgusting dirty. We don't want to set our feet on it. The furniture are demolished. There are even no Coffee in the Lobby, as in other Residence Inn. Last but not least there is a big construction area wall to wall. The price is not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r496989347-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>496989347</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Right next to freeway noise</t>
+  </si>
+  <si>
+    <t>I called and requested an upgraded room which I was told by the front desk wouldbe a quieter location overlooking the pool. When I checked in I was told that the only location available was on the Fair Oaks side of the street which is extremely busy. Weheard noise throughout the night and had a terrible sleep. We feel like we wasted our points with this experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>I called and requested an upgraded room which I was told by the front desk wouldbe a quieter location overlooking the pool. When I checked in I was told that the only location available was on the Fair Oaks side of the street which is extremely busy. Weheard noise throughout the night and had a terrible sleep. We feel like we wasted our points with this experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r490491648-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>490491648</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Garage Entrance could be confusing </t>
+  </si>
+  <si>
+    <t>Stay here for 3 nights with my family. I like the location of the hotel with great selection of restaurants, cafe and shops. But the Garage Entrance might be a little difficult to find. And the breakfast time was very busy during the President Day long weekend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r486578453-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>486578453</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Good Weekend Stay</t>
+  </si>
+  <si>
+    <t>Platinum rewards.  Was in town with the family for a weekend trip in Pasadena.  Hotel is in a good location, the rooms are clean, staff is professional, and the breakfast is above average.  If I were to be back in Pasadena I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r485485696-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>485485696</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Meh...</t>
+  </si>
+  <si>
+    <t>If this hotel was considerably less expensive it would be worth it but the cost just did not add up. Pros: The room itself looked very nice and clean, as well as had a good kitchenette with supplies. Cons: My TV was not working. Maintenance was able to come in and fix it but it kept being temperamental even after they left. -The bed was lumpy and not comfortable. This was surprising. -The breakfast was disgusting. There was very bizarre looking sausage. Also super weak,tinny coffee. If this hotel was way less it would be worthwhile.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>If this hotel was considerably less expensive it would be worth it but the cost just did not add up. Pros: The room itself looked very nice and clean, as well as had a good kitchenette with supplies. Cons: My TV was not working. Maintenance was able to come in and fix it but it kept being temperamental even after they left. -The bed was lumpy and not comfortable. This was surprising. -The breakfast was disgusting. There was very bizarre looking sausage. Also super weak,tinny coffee. If this hotel was way less it would be worthwhile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r481104920-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>481104920</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Quick trip</t>
+  </si>
+  <si>
+    <t>The hotel staff was accommodating  Unfortunately located near the interstates and construction next door.  Only one way in and one way out.  Not really crazy about paying for parking if I am staying at the hotel.  The room was spacious.  Love the large shower</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r481034811-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>481034811</t>
+  </si>
+  <si>
+    <t>Beautiful rooms, wonderful location!</t>
+  </si>
+  <si>
+    <t>I stayed at this property while taking a class in Pasadena for three nights. I booked it based upon its proximity to where I was going. What a wonderful surprise! I stayed in a king room. It was not only newly furnished, but very large with a sitting area with large couch and desk, large flat screen TV that swiveled between the sitting area and bed, a well appointed kitchen (didn't really use it other than the refrig) and a beautiful large bathroom. The bed was extremely comfortable, and the room was quiet. I was able to log into my Netflix account on the TV, which was great! The front desk was pleasant, but not overly helpful. Breakfast was the typical Marriott breakfast buffet in a small area and very crowded, but I took what I wanted and went back to my room with it. Parking is underground with a pass gate.The location of the hotel is right next to the freeway, but the rooms are well soundproofed. The area is great for walking with a ton of wonderful restaurants and nice boutiques for shopping. Saturday night in the area was bustling, with fun people watching. I will definitely return to this property again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this property while taking a class in Pasadena for three nights. I booked it based upon its proximity to where I was going. What a wonderful surprise! I stayed in a king room. It was not only newly furnished, but very large with a sitting area with large couch and desk, large flat screen TV that swiveled between the sitting area and bed, a well appointed kitchen (didn't really use it other than the refrig) and a beautiful large bathroom. The bed was extremely comfortable, and the room was quiet. I was able to log into my Netflix account on the TV, which was great! The front desk was pleasant, but not overly helpful. Breakfast was the typical Marriott breakfast buffet in a small area and very crowded, but I took what I wanted and went back to my room with it. Parking is underground with a pass gate.The location of the hotel is right next to the freeway, but the rooms are well soundproofed. The area is great for walking with a ton of wonderful restaurants and nice boutiques for shopping. Saturday night in the area was bustling, with fun people watching. I will definitely return to this property again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r477825172-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>477825172</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Convenience in Old Town Pasadena</t>
+  </si>
+  <si>
+    <t>This is a great location for doing business or sight seeing in the area. There is construction for additional rooms but that was not an issue. The service and rooms are excellent. It includes a wonderful full breakfast in the morning and some snacks and beverages in the evening. The odd numbered rooms have nice views of Mt. Wilson and the Angeles National Forest. They are on the street side which has traffic 24/7 so if you want quiet go for the even numbered rooms. The parking fee was $17/day but easy in and out for business or pleasure.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r473962963-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>473962963</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent a week at the hotel and was satisfied with my stay. Great location with easy access to the highways and walking distance to old town. Good breakfast and clean rooms and common spaces. It's a very new hotel with some finishing touches still ongoing. Pool is small, basically a lap pool so not ideal for kids or larger groups. The parking is extra and the garage is very tight to maneuver. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r469494694-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>469494694</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Nice New Hotel!</t>
+  </si>
+  <si>
+    <t>This Residence Inn opened in July of 2016 and the property blends in so well with the lovely neighborhood of Old Town Pasadena.  Because the hotel is still new, there were a few issues we had to report during our stay, including AC not cooling sufficiently.  Lucky for us, they have an excellent maintenance team led by experienced professionals, and our requests were taken care of very promptly.  Great customer service!The rooms and bathrooms were sparkling clean and very well laid out.  We had everything we needed in the kitchen.  Housekeeping did a great job with daily cleaning.  Parking is in a separate structure and has no direct access into the building.  It was not a problem when weather is nice - cost is $17 per day.A few minor annoyances: non-pillow top beds are on the harder side and can be uncomfortable for some.  Shampoo and conditioner bottles are small and barely enough for one use by one person.  Our room was on the top floor and it got very hot with afternoon sun.  The view was great, though, through the floor-to-ceiling windows.  Street noises could be heard when it's quiet at night, even on the top floor.Overall a great stay and we will definitely return!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This Residence Inn opened in July of 2016 and the property blends in so well with the lovely neighborhood of Old Town Pasadena.  Because the hotel is still new, there were a few issues we had to report during our stay, including AC not cooling sufficiently.  Lucky for us, they have an excellent maintenance team led by experienced professionals, and our requests were taken care of very promptly.  Great customer service!The rooms and bathrooms were sparkling clean and very well laid out.  We had everything we needed in the kitchen.  Housekeeping did a great job with daily cleaning.  Parking is in a separate structure and has no direct access into the building.  It was not a problem when weather is nice - cost is $17 per day.A few minor annoyances: non-pillow top beds are on the harder side and can be uncomfortable for some.  Shampoo and conditioner bottles are small and barely enough for one use by one person.  Our room was on the top floor and it got very hot with afternoon sun.  The view was great, though, through the floor-to-ceiling windows.  Street noises could be heard when it's quiet at night, even on the top floor.Overall a great stay and we will definitely return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r467701659-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>467701659</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a great find! Awesome location and easy access to freeways. Great that breakfast was served and rooms were new and very clean. Kitchenette was a bonus along with lovely lobby area. All in all, a great stay for my business mixed with family-stay! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r459154975-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>459154975</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Great Location To Explore Pasadena</t>
+  </si>
+  <si>
+    <t>The Residence Inn is situated at the edge of Old Pasadena and provides an excellent location to explore the Pasadena area and other locations north of Los Angeles.  The accommodations are what you expect from a Residence Inn ... a large room with a kitchen area, a comfortable bed, good service and a fairly decent breakfast.  We opted to walk down the street to Russell's for a Sunday brunch.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r458707729-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>458707729</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay for business</t>
+  </si>
+  <si>
+    <t>I was fortunate to stay at this Residence Inn for business.  Built in 2016, this hotel is sparkling clean and beautifully decorated.  Their studio rooms have a small kitchen with a full-size refrigerator, an ample sofa seating area with flat screen TV, a large work desk with lamp and power strip, comfortable bed,  and full bath with walk in shower.  Bedside, there are focused reading lights as well as a lamp, and outlets and USB ports for smartphone charging.  The wi-fi worked flawlessly.  There are many restaurants within walking distance of the hotel.   The hotel is at the intersection of Walnut Avenue and Fair Oaks Avenue, making it convenient to Pasadena businesses.  Choose a higher floor or a room at the back of the property to avoid street noise.  Services and hospitality were excellent. Great hotel for the business traveler in Pasadena!         MoreShow less</t>
+  </si>
+  <si>
+    <t>I was fortunate to stay at this Residence Inn for business.  Built in 2016, this hotel is sparkling clean and beautifully decorated.  Their studio rooms have a small kitchen with a full-size refrigerator, an ample sofa seating area with flat screen TV, a large work desk with lamp and power strip, comfortable bed,  and full bath with walk in shower.  Bedside, there are focused reading lights as well as a lamp, and outlets and USB ports for smartphone charging.  The wi-fi worked flawlessly.  There are many restaurants within walking distance of the hotel.   The hotel is at the intersection of Walnut Avenue and Fair Oaks Avenue, making it convenient to Pasadena businesses.  Choose a higher floor or a room at the back of the property to avoid street noise.  Services and hospitality were excellent. Great hotel for the business traveler in Pasadena!         More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r457637542-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>457637542</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a recently built hotel. Therefore, everything is newly clean, nicely decorated and well-thought out. In the room there is a very nice, well-equipped kitchen, spacious living room with extra-large desk, comfy pillow top bed with soft sheets, and a very large shower. We did not get to take advantage of the free breakfast, but that's a nice perk. The staff was extremely helpful and friendly. We will definitely stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r447881363-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>447881363</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Very convenient</t>
+  </si>
+  <si>
+    <t>I travel to Pasadena a lot on business and this has become by go to hotel.  It's very comfortable and convenient.  Easy freeway access, and excellent location right next to Old Town Pasadena.  Other than that it's a pretty standard Residence Inn, with large comfortable rooms and a good breakfast.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r446938792-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>446938792</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff</t>
+  </si>
+  <si>
+    <t>A few minutes walk from the shops and restaurants of Old Pasadena, the Residence Inn is a nice hotel with comfortable rooms (we had a suite with a king bed, a sofa bed, and a comfortable sofa for our family of 2+2). Bath is spacious with good quality soaps and shampoos. Wifi is on the slow side unless you're willing to pay for the boosted wifi (I don't like that). The advertised hot breakfast is not particularly great (lumpy scrambled eggs for example) but, for the price we paid, I'll take it. A special shout out for the service which was prompt, friendly, and very good. Excellent choice on a price value perspective.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>A few minutes walk from the shops and restaurants of Old Pasadena, the Residence Inn is a nice hotel with comfortable rooms (we had a suite with a king bed, a sofa bed, and a comfortable sofa for our family of 2+2). Bath is spacious with good quality soaps and shampoos. Wifi is on the slow side unless you're willing to pay for the boosted wifi (I don't like that). The advertised hot breakfast is not particularly great (lumpy scrambled eggs for example) but, for the price we paid, I'll take it. A special shout out for the service which was prompt, friendly, and very good. Excellent choice on a price value perspective.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r445428067-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>445428067</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>WONDERFUL!!!</t>
+  </si>
+  <si>
+    <t>OLD TOWN PASADENA!!! Hubby and I just stayed here at this hotel. Its BRAND NEW. Rooms are huge and lovely. The beds are very comfortable. The Front Desk personnel are all very nice, professional and helpful. Hotel is in a fabulous location. Walking distance to tons of restaurants and shopping. We arrived at 5pm and headed two blocks down the street to Cheesecake Factory for dinner. Then over to 85 Degrees Celsius for a coffee/tea and dessert. When we returned to the hotel, in the Lobby they had complimentary WINE, BEER and Ice Cream Sundaes! WOW! Then in the morning their complimentary BREAKFAST was fabulous! WOW again!!!! WE WILL BE BACK!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>OLD TOWN PASADENA!!! Hubby and I just stayed here at this hotel. Its BRAND NEW. Rooms are huge and lovely. The beds are very comfortable. The Front Desk personnel are all very nice, professional and helpful. Hotel is in a fabulous location. Walking distance to tons of restaurants and shopping. We arrived at 5pm and headed two blocks down the street to Cheesecake Factory for dinner. Then over to 85 Degrees Celsius for a coffee/tea and dessert. When we returned to the hotel, in the Lobby they had complimentary WINE, BEER and Ice Cream Sundaes! WOW! Then in the morning their complimentary BREAKFAST was fabulous! WOW again!!!! WE WILL BE BACK!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r437098003-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>437098003</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Leisure stay</t>
+  </si>
+  <si>
+    <t>Nice room/small condo it felt like. Bed was very comfortable and the fire pits outside on the second floor just adds to the ambiance and stay. Only dislike is $17 for self parking per vehicle and the pool closes at 10:00pm.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r436192874-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>436192874</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>It's not a hotel, it's a Residence:)</t>
+  </si>
+  <si>
+    <t>*Disclaimer: I myself did not pay for this accommodation so my review is not based on the price/value but solely on the property/ amenities/ and staff.
+My wife and I stayed here on a Sunday night as it was a great short getaway from our LA home and offered a great opportunity to visit Pasadena for the first time.  We loved Old Town Pasadena for walking, shopping and eating, and it was super conveniently located right next door.
+The hotel is brand new and it shows.  Everything is in pristine condition and shows no signs of wear and tear.  Our room, a King Suite, was very large and stylishly decorated in shades of blue and dark wood and had all the amenities you could ask for.  A full kitchen with fridge and ice machine, stove, microwave, etc. (they even supplied a bag of microwave popcorn which I thought was awesome!)  The living area had a big wrap around couch with a convenient council table that would allow you to work on your computer while comfortable sitting on the couch.  A giant Samsung Smart TV sat upon the big desk with a comfortable office chair, and the TV was easily rotatable to be viewed from anywhere in the room.  The bed was huge and comfy, I got a great nights sleep.  The bathroom was large with a big walk-in shower (just be careful because the faucet is on the opposite side...*Disclaimer: I myself did not pay for this accommodation so my review is not based on the price/value but solely on the property/ amenities/ and staff.My wife and I stayed here on a Sunday night as it was a great short getaway from our LA home and offered a great opportunity to visit Pasadena for the first time.  We loved Old Town Pasadena for walking, shopping and eating, and it was super conveniently located right next door.The hotel is brand new and it shows.  Everything is in pristine condition and shows no signs of wear and tear.  Our room, a King Suite, was very large and stylishly decorated in shades of blue and dark wood and had all the amenities you could ask for.  A full kitchen with fridge and ice machine, stove, microwave, etc. (they even supplied a bag of microwave popcorn which I thought was awesome!)  The living area had a big wrap around couch with a convenient council table that would allow you to work on your computer while comfortable sitting on the couch.  A giant Samsung Smart TV sat upon the big desk with a comfortable office chair, and the TV was easily rotatable to be viewed from anywhere in the room.  The bed was huge and comfy, I got a great nights sleep.  The bathroom was large with a big walk-in shower (just be careful because the faucet is on the opposite side as th knob, and I naturally back up as to not get sprayed with cold water right away but did the exact opposite and backed right up into it.  I'm sure the neighbors heard me yell!!)  Also, the "lemon sage" body wash was in particularly refreshing.  So the room was just ideal.The breakfast was just as one would expect, having some fresh fruit and cereals, scrambled eggs and sausage (I made a breakfast burrito which caught on with other guests:) juices, breads, etc. and a fresh waffle iron which was awesome.  We spend most of the day on Monday out by the swimming pool and jacuzzi.  They have a big garden area with plenty of sitting areas, both lounges and tables, and a couple of fire pits which were really nice at night after dinner.  The pool is big and at least while we were there was not very frequented so we had the place to ourselves (it was November, but it was a warm day and the pool is heated).  They also have an outdoor giant chess set and ping-pong table (for next time) as well as a large fitness center.One of the coolest things they have is on Monday night, they have a "sips and snacks" cocktail in the main lounge.  The hotel offers all the guests a chance to mingle and have complimentary beer and wine and assorted snacks.  It was a great way to relax on a big couch and catch some of the Monday Night Football game!  Really appreciated that touch.  They do some different things during the week as well, I believe on Tuesdays and Wednesdays.The staff was all very friendly and very helpful.  They allowed us to check-in early and have a late check-out as well, which allowed us to enjoy the hotel facilities longer.  They always had a smile on their face and seemed genuinely happy to be there.If I was traveling on business, which I used to a lot, this place would be more than perfect!!  And for a couple traveling that wants a bit of extra room and freedom to cook or prepare snacks etc., also ideal.Overall we had a great stay.  We would not hesitate to book here again for our next Pasadena getaway based on its location and great amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>*Disclaimer: I myself did not pay for this accommodation so my review is not based on the price/value but solely on the property/ amenities/ and staff.
+My wife and I stayed here on a Sunday night as it was a great short getaway from our LA home and offered a great opportunity to visit Pasadena for the first time.  We loved Old Town Pasadena for walking, shopping and eating, and it was super conveniently located right next door.
+The hotel is brand new and it shows.  Everything is in pristine condition and shows no signs of wear and tear.  Our room, a King Suite, was very large and stylishly decorated in shades of blue and dark wood and had all the amenities you could ask for.  A full kitchen with fridge and ice machine, stove, microwave, etc. (they even supplied a bag of microwave popcorn which I thought was awesome!)  The living area had a big wrap around couch with a convenient council table that would allow you to work on your computer while comfortable sitting on the couch.  A giant Samsung Smart TV sat upon the big desk with a comfortable office chair, and the TV was easily rotatable to be viewed from anywhere in the room.  The bed was huge and comfy, I got a great nights sleep.  The bathroom was large with a big walk-in shower (just be careful because the faucet is on the opposite side...*Disclaimer: I myself did not pay for this accommodation so my review is not based on the price/value but solely on the property/ amenities/ and staff.My wife and I stayed here on a Sunday night as it was a great short getaway from our LA home and offered a great opportunity to visit Pasadena for the first time.  We loved Old Town Pasadena for walking, shopping and eating, and it was super conveniently located right next door.The hotel is brand new and it shows.  Everything is in pristine condition and shows no signs of wear and tear.  Our room, a King Suite, was very large and stylishly decorated in shades of blue and dark wood and had all the amenities you could ask for.  A full kitchen with fridge and ice machine, stove, microwave, etc. (they even supplied a bag of microwave popcorn which I thought was awesome!)  The living area had a big wrap around couch with a convenient council table that would allow you to work on your computer while comfortable sitting on the couch.  A giant Samsung Smart TV sat upon the big desk with a comfortable office chair, and the TV was easily rotatable to be viewed from anywhere in the room.  The bed was huge and comfy, I got a great nights sleep.  The bathroom was large with a big walk-in shower (just be careful because the faucet is on the opposite side as th knob, and I naturally back up as to not get sprayed with cold water right away but did the exact opposite and backed right up into it.  I'm sure the neighbors heard me yell!!)  Also, the "lemon sage" body wash was in particularly refreshing.  So the room was just ideal.The breakfast was just as one would expect, having some fresh fruit and cereals, scrambled eggs and sausage (I made a breakfast burrito which caught on with other guests:) juices, breads, etc. and a fresh waffle iron which was awesome.  We spend most of the day on Monday out by the swimming pool and jacuzzi.  They have a big garden area with plenty of sitting areas, both lounges and tables, and a couple of fire pits which were really nice at night after dinner.  The pool is big and at least while we were there was not very frequented so we had the place to ourselves (it was November, but it was a warm day and the pool is heated).  They also have an outdoor giant chess set and ping-pong table (for next time) as well as a large fitness center.One of the coolest things they have is on Monday night, they have a "sips and snacks" cocktail in the main lounge.  The hotel offers all the guests a chance to mingle and have complimentary beer and wine and assorted snacks.  It was a great way to relax on a big couch and catch some of the Monday Night Football game!  Really appreciated that touch.  They do some different things during the week as well, I believe on Tuesdays and Wednesdays.The staff was all very friendly and very helpful.  They allowed us to check-in early and have a late check-out as well, which allowed us to enjoy the hotel facilities longer.  They always had a smile on their face and seemed genuinely happy to be there.If I was traveling on business, which I used to a lot, this place would be more than perfect!!  And for a couple traveling that wants a bit of extra room and freedom to cook or prepare snacks etc., also ideal.Overall we had a great stay.  We would not hesitate to book here again for our next Pasadena getaway based on its location and great amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r433617124-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>433617124</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Stay at Residence Inn Old Town Pasadena</t>
+  </si>
+  <si>
+    <t>Stayed at the Residence Inn in Old Town Pasadena for three nights while attending a conference at the Pasadena Convention Center.  The hotel is about a five minute walk to most of the shops in old town and approximately 10 minutes to the convention center.  The hotel itself is fairly new so all of the common areas and the room itself was in excellent condition.  The room was very spacious, included a kitchen, living room area, bed, and bathroom.  Housekeeping was prompt and had the room ready to go by mid-morning each day.  The staff were very friendly and greeted me every time I left the hotel and re-entered the hotel.  The complimentary breakfast was a nice touch to start off the day.  If you are attending an event at the Rose Bowl, this is the closest hotel to the Rose Bowl if you are walking (15-20 minute walk).  I would not hesitate to stay at this property again if I am in the Pasadena area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stayed at the Residence Inn in Old Town Pasadena for three nights while attending a conference at the Pasadena Convention Center.  The hotel is about a five minute walk to most of the shops in old town and approximately 10 minutes to the convention center.  The hotel itself is fairly new so all of the common areas and the room itself was in excellent condition.  The room was very spacious, included a kitchen, living room area, bed, and bathroom.  Housekeeping was prompt and had the room ready to go by mid-morning each day.  The staff were very friendly and greeted me every time I left the hotel and re-entered the hotel.  The complimentary breakfast was a nice touch to start off the day.  If you are attending an event at the Rose Bowl, this is the closest hotel to the Rose Bowl if you are walking (15-20 minute walk).  I would not hesitate to stay at this property again if I am in the Pasadena area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r428564401-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>428564401</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel.  The staff were friendly, the room was clean, and the breakfasts were great.  The outside pool was very clean and overall this was a wonderful experience.  Secure parking is another plus.  Keep up the good work</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r427997952-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>427997952</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>New is good</t>
+  </si>
+  <si>
+    <t>Its a new Hotels, that makes everything nice and clean. Staff are polite and helpful. The room are typical residence Inn size, I had Studio room with modern furniture with well almost a full kitchen. Minute points: They don't have safe in the room, they have them behind the reception. That is a problem if you want to use something frequently: taking it to and back from the reception, that is annoying.   Because of the traffic jam the location is far from LA. city. Its always traffic jam and then it will take a hour to the city. The breakfast is complimentary which is correct. Bacuse the room is very small, with very little variations actually tables are in the lobby to have your breakfast. It closes very early 09:00 in weekdays and 09:30 in weekends. Breakfast was disappointing for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Its a new Hotels, that makes everything nice and clean. Staff are polite and helpful. The room are typical residence Inn size, I had Studio room with modern furniture with well almost a full kitchen. Minute points: They don't have safe in the room, they have them behind the reception. That is a problem if you want to use something frequently: taking it to and back from the reception, that is annoying.   Because of the traffic jam the location is far from LA. city. Its always traffic jam and then it will take a hour to the city. The breakfast is complimentary which is correct. Bacuse the room is very small, with very little variations actually tables are in the lobby to have your breakfast. It closes very early 09:00 in weekdays and 09:30 in weekends. Breakfast was disappointing for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r426787076-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>426787076</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Senior citizen talking to other seniors:  We stay at a lot of Residence Inns, and this is one of the best.  First-class accommodations, secure underground parking, well-managed staff, great rooms (ours was quite large) with all the conveniences of home, the usual decent breakfast.  Very convenient to the freeway.  Just about everything you could ask of a senior citizen hotel.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r414638322-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>414638322</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>New Property in Pasadena</t>
+  </si>
+  <si>
+    <t>This Residence Inn was less than two months old when we checked-in. I was quite surprised by the details in the lobby and in the rooms.  The rooms were very well appointed with kitchenette, writing table and sofa. The bathroom had a large walk-in shower!The hotel is just blocks away from the old town of Pasadena, full of shops and restaurants.Definitely should be on your radar as an option in Pasadena!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r410764889-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>410764889</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel has a great location. Clean and modern room. Stayed for business during a busy week and was definitely a little noisy but other than that great stay. Staff is very helpful and friendly. Would return for another stay and highly recommend. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r408790187-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>408790187</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Well designed, New, but that new smell is a little too strong.</t>
+  </si>
+  <si>
+    <t>We stayed here for one night about two weeks after opening.  The rooms are very well thought out and very comfortable with a large kitchen area, small living area with large desk, comfortable bed and a large bathroom.   One can be very comfortable here either short or long term.    However, the smell of all the new furnishings and construction materials was a little too strong for us.  And since it was hot out (and noisy on the Fair Oaks Blvd side of the building) opening the window for very long was not a good solution.  Eventually the off gassing from the furnishings will subside and this will be a very solid choice in Pasadena.  On our second stay in Pasadena a few days later we chose a different hotel because we felt that the smell here was really too strong.    I think the rooms facing Walnut may be the quietest and would ask for one of those next time.  The rooms facing the pool also face a nearby construction site and the freeway beyond.  They are probably pretty quiet actually, but I wonder as the construction site progresses how that might impact this hotel.   I am glad to see this type of hotel being built.  It really has everything you need and the quality of the rooms is very high while the price point is often fairly modest for what's offered.  We paid $250 (plus $17 parking) so it's not...We stayed here for one night about two weeks after opening.  The rooms are very well thought out and very comfortable with a large kitchen area, small living area with large desk, comfortable bed and a large bathroom.   One can be very comfortable here either short or long term.    However, the smell of all the new furnishings and construction materials was a little too strong for us.  And since it was hot out (and noisy on the Fair Oaks Blvd side of the building) opening the window for very long was not a good solution.  Eventually the off gassing from the furnishings will subside and this will be a very solid choice in Pasadena.  On our second stay in Pasadena a few days later we chose a different hotel because we felt that the smell here was really too strong.    I think the rooms facing Walnut may be the quietest and would ask for one of those next time.  The rooms facing the pool also face a nearby construction site and the freeway beyond.  They are probably pretty quiet actually, but I wonder as the construction site progresses how that might impact this hotel.   I am glad to see this type of hotel being built.  It really has everything you need and the quality of the rooms is very high while the price point is often fairly modest for what's offered.  We paid $250 (plus $17 parking) so it's not cheap. I am willing to overlook that though since it is so well thought out and clean/new.  Location is good, about two blocks from the Pasadena "old town" with all it's shops, restaurants, and nightlife.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night about two weeks after opening.  The rooms are very well thought out and very comfortable with a large kitchen area, small living area with large desk, comfortable bed and a large bathroom.   One can be very comfortable here either short or long term.    However, the smell of all the new furnishings and construction materials was a little too strong for us.  And since it was hot out (and noisy on the Fair Oaks Blvd side of the building) opening the window for very long was not a good solution.  Eventually the off gassing from the furnishings will subside and this will be a very solid choice in Pasadena.  On our second stay in Pasadena a few days later we chose a different hotel because we felt that the smell here was really too strong.    I think the rooms facing Walnut may be the quietest and would ask for one of those next time.  The rooms facing the pool also face a nearby construction site and the freeway beyond.  They are probably pretty quiet actually, but I wonder as the construction site progresses how that might impact this hotel.   I am glad to see this type of hotel being built.  It really has everything you need and the quality of the rooms is very high while the price point is often fairly modest for what's offered.  We paid $250 (plus $17 parking) so it's not...We stayed here for one night about two weeks after opening.  The rooms are very well thought out and very comfortable with a large kitchen area, small living area with large desk, comfortable bed and a large bathroom.   One can be very comfortable here either short or long term.    However, the smell of all the new furnishings and construction materials was a little too strong for us.  And since it was hot out (and noisy on the Fair Oaks Blvd side of the building) opening the window for very long was not a good solution.  Eventually the off gassing from the furnishings will subside and this will be a very solid choice in Pasadena.  On our second stay in Pasadena a few days later we chose a different hotel because we felt that the smell here was really too strong.    I think the rooms facing Walnut may be the quietest and would ask for one of those next time.  The rooms facing the pool also face a nearby construction site and the freeway beyond.  They are probably pretty quiet actually, but I wonder as the construction site progresses how that might impact this hotel.   I am glad to see this type of hotel being built.  It really has everything you need and the quality of the rooms is very high while the price point is often fairly modest for what's offered.  We paid $250 (plus $17 parking) so it's not cheap. I am willing to overlook that though since it is so well thought out and clean/new.  Location is good, about two blocks from the Pasadena "old town" with all it's shops, restaurants, and nightlife.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r403212258-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>403212258</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>A quiet oasis of elegance</t>
+  </si>
+  <si>
+    <t>Through our own mix-up of our reservation, we arrived to find we had no reservation and the hotel was sold out. Maggie, the manager, worked her magic to find us a room. It made all the difference to us because we were tired, hot and sweaty after participating in a sporting event nearby. 
+This property opened only a few weeks ago. Our room was a suite, as all the rooms are. Our room was spacious enough that the three of us were super comfortable and never felt like we were on top of each other. There was a king sized bed and a sofa bed. The kitchenette came fully furnished with dishes, coffee maker, etc. the bathroom was huge with a glassed in shower that you'd expect in a much fancier place. 
+The property is small, but they've made the most of it. There is a small pool and an outdoor area with a giant chess set. There is a nice, bright workout room with Windows that look out to the pool. There is even a self serve laundry room! 
+The lobby is small but not cramped, with an interesting fireplace. There is a breakfast area that is a little tight at peak times. The food selection is great- the first bite we've ever seen where guests could build breakfast burritos!
+We will stay there again, for sure. We loved the layout and the staff were exceptional. A huge thanks...Through our own mix-up of our reservation, we arrived to find we had no reservation and the hotel was sold out. Maggie, the manager, worked her magic to find us a room. It made all the difference to us because we were tired, hot and sweaty after participating in a sporting event nearby. This property opened only a few weeks ago. Our room was a suite, as all the rooms are. Our room was spacious enough that the three of us were super comfortable and never felt like we were on top of each other. There was a king sized bed and a sofa bed. The kitchenette came fully furnished with dishes, coffee maker, etc. the bathroom was huge with a glassed in shower that you'd expect in a much fancier place. The property is small, but they've made the most of it. There is a small pool and an outdoor area with a giant chess set. There is a nice, bright workout room with Windows that look out to the pool. There is even a self serve laundry room! The lobby is small but not cramped, with an interesting fireplace. There is a breakfast area that is a little tight at peak times. The food selection is great- the first bite we've ever seen where guests could build breakfast burritos!We will stay there again, for sure. We loved the layout and the staff were exceptional. A huge thanks to Maggie for all her help!MoreShow less</t>
+  </si>
+  <si>
+    <t>Through our own mix-up of our reservation, we arrived to find we had no reservation and the hotel was sold out. Maggie, the manager, worked her magic to find us a room. It made all the difference to us because we were tired, hot and sweaty after participating in a sporting event nearby. 
+This property opened only a few weeks ago. Our room was a suite, as all the rooms are. Our room was spacious enough that the three of us were super comfortable and never felt like we were on top of each other. There was a king sized bed and a sofa bed. The kitchenette came fully furnished with dishes, coffee maker, etc. the bathroom was huge with a glassed in shower that you'd expect in a much fancier place. 
+The property is small, but they've made the most of it. There is a small pool and an outdoor area with a giant chess set. There is a nice, bright workout room with Windows that look out to the pool. There is even a self serve laundry room! 
+The lobby is small but not cramped, with an interesting fireplace. There is a breakfast area that is a little tight at peak times. The food selection is great- the first bite we've ever seen where guests could build breakfast burritos!
+We will stay there again, for sure. We loved the layout and the staff were exceptional. A huge thanks...Through our own mix-up of our reservation, we arrived to find we had no reservation and the hotel was sold out. Maggie, the manager, worked her magic to find us a room. It made all the difference to us because we were tired, hot and sweaty after participating in a sporting event nearby. This property opened only a few weeks ago. Our room was a suite, as all the rooms are. Our room was spacious enough that the three of us were super comfortable and never felt like we were on top of each other. There was a king sized bed and a sofa bed. The kitchenette came fully furnished with dishes, coffee maker, etc. the bathroom was huge with a glassed in shower that you'd expect in a much fancier place. The property is small, but they've made the most of it. There is a small pool and an outdoor area with a giant chess set. There is a nice, bright workout room with Windows that look out to the pool. There is even a self serve laundry room! The lobby is small but not cramped, with an interesting fireplace. There is a breakfast area that is a little tight at peak times. The food selection is great- the first bite we've ever seen where guests could build breakfast burritos!We will stay there again, for sure. We loved the layout and the staff were exceptional. A huge thanks to Maggie for all her help!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r399621199-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>399621199</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business and personal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great new facility with excellent staff.  I met Gabby, Katie, and Annie from housekeeping and they made my stay just better. I have stayed at many business hotels and vacation resorts and concluded that when the staff takes an extra step, I always feel so welcomed.  Gabby worked very hard to keep our breakfast well stocked and with courtesy, calmness, and professionalism. Thank you Gabby. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r396037945-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>396037945</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Brand new hotel with a very well thought interior design</t>
+  </si>
+  <si>
+    <t>This is the first Residence Inn with a totally brand new look &amp; concept! Totally new layout &amp; modern design especially the bathroom!! You just got to love the bathroom with all white design. Great kitchen space, with all the standard dishwashing machine, full size fridge, microwave, etc. Love it..!!! You just got to come here to experience it. Totally welcoming!! Will come back again!</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1775,3306 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s">
+        <v>218</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" t="s">
+        <v>244</v>
+      </c>
+      <c r="L27" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>246</v>
+      </c>
+      <c r="X27" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s">
+        <v>253</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>254</v>
+      </c>
+      <c r="X28" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>196</v>
+      </c>
+      <c r="O31" t="s">
+        <v>143</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>272</v>
+      </c>
+      <c r="X31" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" t="s">
+        <v>277</v>
+      </c>
+      <c r="K32" t="s">
+        <v>278</v>
+      </c>
+      <c r="L32" t="s">
+        <v>279</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>280</v>
+      </c>
+      <c r="O32" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>285</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s">
+        <v>296</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>280</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>302</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J37" t="s">
+        <v>306</v>
+      </c>
+      <c r="K37" t="s">
+        <v>307</v>
+      </c>
+      <c r="L37" t="s">
+        <v>308</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>302</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>310</v>
+      </c>
+      <c r="J38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>314</v>
+      </c>
+      <c r="O38" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>285</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>322</v>
+      </c>
+      <c r="J40" t="s">
+        <v>323</v>
+      </c>
+      <c r="K40" t="s">
+        <v>324</v>
+      </c>
+      <c r="L40" t="s">
+        <v>325</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>285</v>
+      </c>
+      <c r="O40" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>327</v>
+      </c>
+      <c r="J41" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s">
+        <v>330</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>331</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>333</v>
+      </c>
+      <c r="J42" t="s">
+        <v>334</v>
+      </c>
+      <c r="K42" t="s">
+        <v>335</v>
+      </c>
+      <c r="L42" t="s">
+        <v>336</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>337</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>339</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>340</v>
+      </c>
+      <c r="J43" t="s">
+        <v>341</v>
+      </c>
+      <c r="K43" t="s">
+        <v>342</v>
+      </c>
+      <c r="L43" t="s">
+        <v>343</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>337</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" t="s">
+        <v>349</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>331</v>
+      </c>
+      <c r="O44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>351</v>
+      </c>
+      <c r="J45" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s">
+        <v>354</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>331</v>
+      </c>
+      <c r="O45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>361</v>
+      </c>
+      <c r="O46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>363</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>364</v>
+      </c>
+      <c r="J47" t="s">
+        <v>365</v>
+      </c>
+      <c r="K47" t="s">
+        <v>366</v>
+      </c>
+      <c r="L47" t="s">
+        <v>367</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>361</v>
+      </c>
+      <c r="O47" t="s">
+        <v>115</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>369</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+      <c r="K48" t="s">
+        <v>371</v>
+      </c>
+      <c r="L48" t="s">
+        <v>372</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>374</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>375</v>
+      </c>
+      <c r="J49" t="s">
+        <v>376</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>377</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>378</v>
+      </c>
+      <c r="O49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>379</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>380</v>
+      </c>
+      <c r="J50" t="s">
+        <v>381</v>
+      </c>
+      <c r="K50" t="s">
+        <v>382</v>
+      </c>
+      <c r="L50" t="s">
+        <v>383</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>378</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>384</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>385</v>
+      </c>
+      <c r="J51" t="s">
+        <v>386</v>
+      </c>
+      <c r="K51" t="s">
+        <v>387</v>
+      </c>
+      <c r="L51" t="s">
+        <v>388</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>389</v>
+      </c>
+      <c r="O51" t="s">
+        <v>82</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>390</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>391</v>
+      </c>
+      <c r="J52" t="s">
+        <v>392</v>
+      </c>
+      <c r="K52" t="s">
+        <v>393</v>
+      </c>
+      <c r="L52" t="s">
+        <v>394</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>389</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>397</v>
+      </c>
+      <c r="J53" t="s">
+        <v>398</v>
+      </c>
+      <c r="K53" t="s">
+        <v>399</v>
+      </c>
+      <c r="L53" t="s">
+        <v>400</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>389</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>403</v>
+      </c>
+      <c r="J54" t="s">
+        <v>404</v>
+      </c>
+      <c r="K54" t="s">
+        <v>405</v>
+      </c>
+      <c r="L54" t="s">
+        <v>406</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>407</v>
+      </c>
+      <c r="O54" t="s">
+        <v>82</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64990</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>408</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>409</v>
+      </c>
+      <c r="J55" t="s">
+        <v>410</v>
+      </c>
+      <c r="K55" t="s">
+        <v>411</v>
+      </c>
+      <c r="L55" t="s">
+        <v>412</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>407</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_653.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_653.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Lanesa79</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>So I’m still not sure why I chose to stay here. Tried to decide what would be best. We only stayed one night so nothing special. The hotel itself was clean and sufficient. It was the staff. The front desk agents were not friendly at all. It was if we were bothering them. No smiles no thank you for visiting. Just robotic people. Maybe I’m expecting too much but a hello thank you for visiting our hotel would be great. The breakfast was nice and clean and the attendants there were friendly so maybe they should be at the front desk. More</t>
   </si>
   <si>
+    <t>Jo S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r588917547-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Everyone we encounter at this hotel were extremely pleasant.  The rooms, in my opinion, are great.  We are not the most high maintenance of people when traveling, so having a kitchen in the room made it a 4 Star for us.  Being vegetarian, we prefer to cook ourselves so having a kitchen was a nice bonus to the trip.   We had a room on the 2nd floor facing Walnut Street, and did not hear the traffic at all.  I do like the fact this is a "Pet" friendly hotel.  Smart and Final, should you need groceries, is a block away.  Restaurants and other attractions are very close by.  For us, everything was in walking distance.  Next time we are in Pasadena, we will be staying at this location.More</t>
   </si>
   <si>
+    <t>twaone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r588445223-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>Modern, well staffed an well maintained. On site parking  (for a fee). Nice designed suites, attractive lobby. Easily walk to shops and restaurants in Old Town. Super staff from the Front Desk to the breakfast/lounge area. If you are a light sleeper, you should request room of rear of building away from Fair Oaks Blvd.</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r581478850-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>Took my daughter to her first concert. Wanted to do something special. Meet my expectations. Very nice stay.  Staff extremely accommodating even during a sold out weekend. Early check in and late check out.  Room was excellent. Could not have asked for more. Worth every penny! Thanks More</t>
   </si>
   <si>
+    <t>Jerry J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r579145355-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>History4fun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r574974250-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>Spent nearly eight weeks here over 4 separate stays. I use mobile check-in/check-out, which makes it very easy. Staff are always friendly and helpful. Special call out to Stephanie at the front desk and Debbie at the breakfast area. Rooms are nice and large - especially, for an extended stay or for families with kids or pets. Breakfast is good - decent variety of hot and cold offerings. Beds are comfortable and the bathroom /shower area is large. There's a regular size fridge, microwave and utensils are provided - similar to any other Residence Inns. Large smart TV in all rooms is very helpful to unwind after along day. Exercise room and outdoor pool are really nice. There are plenty of places to eat nearby - walking distance. As others have noted, there may be a couple of things to be aware of... Lot of parking available in the basement, but be careful of the sharp turns needed to get in and out (room key required). Closet space is little limited (for extended stay travelers).  Overall, highly recommend and I'd stay here anytime during my visits to this area!More</t>
   </si>
   <si>
+    <t>edf662018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r570219281-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -319,6 +340,9 @@
   </si>
   <si>
     <t>Having to travel to LA frequently, I love to stay at the Pasadena Residence Inn. The rooms are great - large with a kitchen, location on the main street with access to so many restaurants and shops easily walkable.  If you don't mind not being in LA proper, I recommend this hotel. It's really not a bad drive into LA, if you know when to avoid the traffic gridlock.More</t>
+  </si>
+  <si>
+    <t>Donald M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r566691387-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
@@ -356,6 +380,9 @@
 So, in summary: Great location...We stayed at this hotel for about 5 days.  It was convenient to where we needed to go on this trip.  The staff that works here is very committed to making sure you have a good stay.  In the elevator they post the weeks activities, events they organize to add some fun to your trip.  Cookouts, cocktails, etc... It builds a sense of community, which I think is a good thing.The rooms are fine, nothing really different from most Residence Inn’s.  You have a small kitchen, with a full sized fridge, and freezer.  They also have a cooktop if you want to use that or the microwave. But with free Breakfast everyday (open till 9:00am during the week) you might not need to do more than pop some popcorn!The bed is very comfortable.  The shower is beautiful, but I found myself constantly trying to get the temperature to stay at a consistent degree. And the water pressure is very low.  Might be the building going on next door? Large screen HD TV, which you can watch, or use it to see Netflix, hulu, etc...Parking is provided, but there is a slight cost.  Sometimes you can get lucky and park in the few spots right by the main entrance.  Otherwise your hotel key will admit you to the additional parking downstairs.  With the elevators, it’s fine to be on a lower parking level.So, in summary: Great location (right off the 134), superior staff of highly motivated folks.  Makes you feel like home! Pricing was in line with other hotels, but the free breakfast and other stuff reduces the overall cost. Amenities are good.  There is a pool and fitness center, two desktop computers in the lobby which are free to use or print boarding passes.I will stay here again on my next trip to LA, which could be in 4-5 months.More</t>
   </si>
   <si>
+    <t>Seabreeze48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r566095647-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -383,6 +410,9 @@
     <t>Busy corner location on freeway and streets. Asked for quiet room and was NOT given a room on the patio/pool side of the hotel. Left a satchel with scissors and medical bandages in the room, when called after we left, we were told that cleaning staff had NOT turned in our belongings. Thin walls, could hear talking and snoring in adjacent room. More</t>
   </si>
   <si>
+    <t>DMUH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r563441912-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -413,6 +443,9 @@
     <t>The hotel was clean and modern.  We didn't use it but our room had a stove, ref, dishwasher, and microwave oven.  We did use the coffee maker.  The hotel provides free coffee in the room, as well as popcorn (for the microwave).  The room is huge and very comfortable.  The staff at the hotel made the difference.  The hotel provides free breakfast.  The staff was attentive and replaced all items as they were running out.  You didn't need to "catch" their attention if the coffee was low, etc.  The front desk was also very pleasant every day (I stayed for 7 days).  The parking was convenient.  The local is a couple of blocks from Colorado Blvd but the walk was not a problem.  Definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>Travellers360</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r562232463-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -437,6 +470,9 @@
     <t>The staff were absolutely amazing. They helped accommodate me and my requests throughout my stay. I especially enjoyed how they made me feel at home at the hotel over the week I spent there. The facilities were very well kept and new and the rooms themselves were amazing. The suites have everything you need and they are of a good size and are very modern. The hotel is very clean and caters to a wide variety of people. Overall, I would be more then happy to return to this hotel if I am ever in the area again!More</t>
   </si>
   <si>
+    <t>Kaiserhof-Travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r559721516-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -458,6 +494,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Shirley R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r551360828-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -482,6 +521,9 @@
     <t>We stayed at the Residence Inn in Pasadena on Christmas Eve and Christmas night. The staff there is very professional, courteous, and extremely helpful. We had a very comfortable, stylis  studio suite room  and both of us had a great sleep both nights!  We had a little plumbing snafu the first morning that was addressed immediately. The breakfast was delicious and that there is plenty of seating but the actual service area is a bit tight. The location is perfect for shopping and Old Town Pasadena. There are many great restaurants just down the street. Plenty of parking and love the free Internet!More</t>
   </si>
   <si>
+    <t>kellstravs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r549084390-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -500,6 +542,9 @@
     <t>The lobby of the hotel is very tourist friendly. They have cucumber infused ice water and orange infused ice water. Much needed after a long drive to the hotel! The room was very big, with an open kitchen. The utilities in the kitchen is very complete as well.  There's complementary breakfast from 6:30-9:30am, which gives you sufficient time in the morning. The plugs in the room is very user friendly! They have a USB plug which enables you to charge your phone directly with the USB cable, and not needing to buy an American adapter. The swimming pool is quite small, but good enough for a quick dip. The gym is simple, but quite complete - treadmill, cross trainer, bike, free weights, multipurpose bar, and balance balls. The hotel is also walking distance to the Old Pasadena town, with lots of shops and restaurants near by. Very convenient. I will definitely recommend this hotel. Extremely nice staff and house-keepers, clean and hygienic room, and full facilities available for travellers! More</t>
   </si>
   <si>
+    <t>Daniel S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r547035263-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -524,6 +569,9 @@
     <t>I enjoy staying at Residence Inn's.  I had to be in the area for a legal matter, and stayed here as it was near the courthouse.  The woman who checked me in was great - she answered my questions about local places to get a quick bit (this was after 8pm). She even went as far as to print out local maps with directions.  I forgot to pack my toothpaste - no problem, I was provided several packets of toothpaste.  My room met my expectations, as did breakfast.The only funky thing was the onsite parking.  You need your room key to enter and exit the parking lot that is underground.  I had no trouble entering, but there is a tight turn when you exit, and reaching the scanning device was difficult.  I had to back up the first time, the second time I opened the door and got out of my car.  Also, I usually leave the room key in my room when I check out - but if I did, would I be able to exit the parking lot?  So that makes checking out a bit odd as well.More</t>
   </si>
   <si>
+    <t>Mike H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r542876754-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -548,6 +596,9 @@
     <t>Stayed here one night in a junior suite. The on-site parking is expensive, $20 for a day. But the gym is decent and the shower in the junior suite was very nice and a walk in shower. Complimentary breakfast is included and has a variety of items and overall delicious.More</t>
   </si>
   <si>
+    <t>kdd9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r541247577-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -575,6 +626,9 @@
     <t>Spent 6 nights here while taking my mom around the LA area to visit family. The rooms are great since the hotel is pretty new! Very comfortable and perfect location. Lots of nice restaurants to choose from within walking distance. Gym was nice too! Breakfast buffet was average but pretty much as expected for an included meal. Only other complaint is that a few of the nights the road noise was kind of bad.Over all great place to stay!  Will definitely stay again the next time we are in the Pasadena area!More</t>
   </si>
   <si>
+    <t>JJD2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r540031429-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -599,6 +653,9 @@
     <t>We experienced an unusually long delay in check-in, allegedly due to a “staff meeting” earlier in the day.  Umm...sure.  Okay.  We reached the point that we were seriously considering going to the Marriott Courtyard across the street instead.  Thankfully I spotted Joseph behind the check-in desk.  I could tell by his professional demeanor that he was the guy who I could solve this problem.  And solve it he did.  Somehow Joseph managed to find us a fabulous corner suite.  The next morning we saw Joseph at breakfast and he checked with us to make sure that everything was completely satisfactory with our room.  A special citation for exceptional service should go to Joseph.  He is the reason we remain loyal, satisfied guests of Marriott.  Great room, comfortable beds, clean kitchenette and bathrooms, too.  I would definitely stay here next time I’m in Pasadena.More</t>
   </si>
   <si>
+    <t>Dave L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r531749195-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -626,6 +683,9 @@
     <t>Stayed here for 1 night while in Pasadena attending a concert at the Rose Bowl.  Friendly staff, clean (and spacious) room, convenient parking.Note: it is a struggle getting back to this hotel (or any, really) from the Rose Bowl, so we chose to walk.  If you do so, it's approximately a 45 minute walk, but that would be the same from any Old Town Pasadena hotel.More</t>
   </si>
   <si>
+    <t>Antoinette L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r529165064-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -653,6 +713,9 @@
     <t>I wish zero was an option bevause they don't even deserve a 1. Never in my life have I been treated so poorly!!!!  I attempted to check in late on a Wednesday night.  My bank, in an effort to protect me,  blocked my card, in case of fraudulent activity.  I had no other card with me, because I didn't expect any issues.  Long story short, I wasn't allowed to check in,  I wasnt even welcomed in the lobby,  I just took that liberty after him saying ' I can't have people in the lobby', yet there were several couches,  chairs and benches everywhere. I reminded him that I am a Platinum Elite member-which meant nothing to him, obviously.  Finally, after little help,  I called the Reservation line,  who encouraged me to get a credit card authorization from a trusted friend/spouse. Ok.  I began working  on that. Got that taken care of, and Ryan, THE MOST HORRIBLE CUSTOMER SERVICE PERSON EVER  lied and said it had to be from a business.  I am a business owner! I was treated like scum,  in a place that I've spent thousands.   Marriott,  youmight want to consider how horrible your staff is and get it together!!! I've alerted my colleagues and family members about your ridiculousness.  I hope you feel it!  P. S.  I travel for work weekly. Guess where I'm NOT staying this week? #marriottsucksnowMore</t>
   </si>
   <si>
+    <t>fcrane35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r527139139-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -668,6 +731,9 @@
     <t>Beautifully designed Residence Inn, familiar yet way better and more contemporary.  Rooms have everything including comfy beds and Pacific Coast Down pillows that are full size (unlike many Marriotts). Excellent climate control, large shower and bathroom, only thing missing was an in room safe which is important for swimming and the like.  Very nice pool and pool deck with lots of seating, grills, lawn chess and fire pits.  Breakfast was outstanding and Debbie was very friendly and helpful as were the front desk staff Sheila and Raymond.  Will definitely stay again and look forward to it.</t>
   </si>
   <si>
+    <t>One2Another</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r520034420-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -686,6 +752,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>gally4982</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r519116698-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -713,6 +782,9 @@
     <t>I have a 12 years old cat.  On a website, they said they are pet friendly.  When I checked in, I was nice enough to let the front desk know that I have a cat and warn that when the cleaning lady comes in, they would make sure my cat is kept inside.  Instead, they gave me the pet agreement that I must follow EVERYTHING like I have to make sure the hotel stays tidy and kind of perfect with no minor damage.  I was terrified in signing the agreement.  Then they said I must pay $125 pet service per stay.  If I had known or they were honest prior to my check in, I would not check in at all.  I am stressed and look forward to moving out and not coming back at all.More</t>
   </si>
   <si>
+    <t>UtahTraveldude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r518317240-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -728,6 +800,9 @@
     <t>This was a good property, very centrally located to many attractions and points of interest. The rooms were clean and the beds very good. Parking is in a structure that is attached to the hotel, you park on the same level as your room and walk onto your floor...very convenient. We spent the day in LA and this was a lot cheaper than staying closer in.</t>
   </si>
   <si>
+    <t>Squacklips</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r503313021-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -749,6 +824,9 @@
     <t>Unlike other recent reviewers, we found the Residence Inn to be clean and quiet, even though it is near the highway. (We stayed on a Friday night.) Our room was surprisingly modern, comfortable and well-equipped with a full kitchen and sofa bed. The breakfast was good and well-stocked, though the space was crowded. It is a couple of blocks from the Old Town with plenty of good restaurants and cafes. We also visited The Gamble House while in Pasadena, which was only a 5 min drive. Finding the entrance into the parking lot from the highway was a bit confusing and the path from the lot into the hotel was a little funky. All in all, a good place for a stopover.More</t>
   </si>
   <si>
+    <t>Angelica H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r500078032-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -773,6 +851,9 @@
     <t>We stay here on our way to San Francisco. We are  really disappointed about this  Hotel.  It is not well maintained. The Carpets are dirty in the complete  Hotel. Our  Room was stinking. The  Carpet is disgusting dirty. We don't want to set our feet on it. The furniture are demolished. There are even no Coffee in the Lobby, as in other Residence Inn. Last but not least there is a big construction area wall to wall. The price is not worth it.More</t>
   </si>
   <si>
+    <t>bob m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r496989347-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -797,6 +878,9 @@
     <t>I called and requested an upgraded room which I was told by the front desk wouldbe a quieter location overlooking the pool. When I checked in I was told that the only location available was on the Fair Oaks side of the street which is extremely busy. Weheard noise throughout the night and had a terrible sleep. We feel like we wasted our points with this experience.More</t>
   </si>
   <si>
+    <t>Kristen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r490491648-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -812,6 +896,9 @@
     <t>Stay here for 3 nights with my family. I like the location of the hotel with great selection of restaurants, cafe and shops. But the Garage Entrance might be a little difficult to find. And the breakfast time was very busy during the President Day long weekend.</t>
   </si>
   <si>
+    <t>Bill B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r486578453-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -827,6 +914,9 @@
     <t>Platinum rewards.  Was in town with the family for a weekend trip in Pasadena.  Hotel is in a good location, the rooms are clean, staff is professional, and the breakfast is above average.  If I were to be back in Pasadena I would stay here again.</t>
   </si>
   <si>
+    <t>DoubleR7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r485485696-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -851,6 +941,9 @@
     <t>If this hotel was considerably less expensive it would be worth it but the cost just did not add up. Pros: The room itself looked very nice and clean, as well as had a good kitchenette with supplies. Cons: My TV was not working. Maintenance was able to come in and fix it but it kept being temperamental even after they left. -The bed was lumpy and not comfortable. This was surprising. -The breakfast was disgusting. There was very bizarre looking sausage. Also super weak,tinny coffee. If this hotel was way less it would be worthwhile.More</t>
   </si>
   <si>
+    <t>snuze62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r481104920-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -869,6 +962,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>KKayLJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r481034811-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -887,6 +983,9 @@
     <t>I stayed at this property while taking a class in Pasadena for three nights. I booked it based upon its proximity to where I was going. What a wonderful surprise! I stayed in a king room. It was not only newly furnished, but very large with a sitting area with large couch and desk, large flat screen TV that swiveled between the sitting area and bed, a well appointed kitchen (didn't really use it other than the refrig) and a beautiful large bathroom. The bed was extremely comfortable, and the room was quiet. I was able to log into my Netflix account on the TV, which was great! The front desk was pleasant, but not overly helpful. Breakfast was the typical Marriott breakfast buffet in a small area and very crowded, but I took what I wanted and went back to my room with it. Parking is underground with a pass gate.The location of the hotel is right next to the freeway, but the rooms are well soundproofed. The area is great for walking with a ton of wonderful restaurants and nice boutiques for shopping. Saturday night in the area was bustling, with fun people watching. I will definitely return to this property again!More</t>
   </si>
   <si>
+    <t>Gene H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r477825172-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -902,6 +1001,9 @@
     <t>This is a great location for doing business or sight seeing in the area. There is construction for additional rooms but that was not an issue. The service and rooms are excellent. It includes a wonderful full breakfast in the morning and some snacks and beverages in the evening. The odd numbered rooms have nice views of Mt. Wilson and the Angeles National Forest. They are on the street side which has traffic 24/7 so if you want quiet go for the even numbered rooms. The parking fee was $17/day but easy in and out for business or pleasure.</t>
   </si>
   <si>
+    <t>Alicia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r473962963-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -917,6 +1019,9 @@
     <t xml:space="preserve">Spent a week at the hotel and was satisfied with my stay. Great location with easy access to the highways and walking distance to old town. Good breakfast and clean rooms and common spaces. It's a very new hotel with some finishing touches still ongoing. Pool is small, basically a lap pool so not ideal for kids or larger groups. The parking is extra and the garage is very tight to maneuver. </t>
   </si>
   <si>
+    <t>SYWHOU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r469494694-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -938,6 +1043,9 @@
     <t>This Residence Inn opened in July of 2016 and the property blends in so well with the lovely neighborhood of Old Town Pasadena.  Because the hotel is still new, there were a few issues we had to report during our stay, including AC not cooling sufficiently.  Lucky for us, they have an excellent maintenance team led by experienced professionals, and our requests were taken care of very promptly.  Great customer service!The rooms and bathrooms were sparkling clean and very well laid out.  We had everything we needed in the kitchen.  Housekeeping did a great job with daily cleaning.  Parking is in a separate structure and has no direct access into the building.  It was not a problem when weather is nice - cost is $17 per day.A few minor annoyances: non-pillow top beds are on the harder side and can be uncomfortable for some.  Shampoo and conditioner bottles are small and barely enough for one use by one person.  Our room was on the top floor and it got very hot with afternoon sun.  The view was great, though, through the floor-to-ceiling windows.  Street noises could be heard when it's quiet at night, even on the top floor.Overall a great stay and we will definitely return!More</t>
   </si>
   <si>
+    <t>Brooke H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r467701659-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -953,6 +1061,9 @@
     <t xml:space="preserve">What a great find! Awesome location and easy access to freeways. Great that breakfast was served and rooms were new and very clean. Kitchenette was a bonus along with lovely lobby area. All in all, a great stay for my business mixed with family-stay! </t>
   </si>
   <si>
+    <t>edlexin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r459154975-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -971,6 +1082,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>TomSwain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r458707729-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -989,6 +1103,9 @@
     <t>I was fortunate to stay at this Residence Inn for business.  Built in 2016, this hotel is sparkling clean and beautifully decorated.  Their studio rooms have a small kitchen with a full-size refrigerator, an ample sofa seating area with flat screen TV, a large work desk with lamp and power strip, comfortable bed,  and full bath with walk in shower.  Bedside, there are focused reading lights as well as a lamp, and outlets and USB ports for smartphone charging.  The wi-fi worked flawlessly.  There are many restaurants within walking distance of the hotel.   The hotel is at the intersection of Walnut Avenue and Fair Oaks Avenue, making it convenient to Pasadena businesses.  Choose a higher floor or a room at the back of the property to avoid street noise.  Services and hospitality were excellent. Great hotel for the business traveler in Pasadena!         More</t>
   </si>
   <si>
+    <t>Gloria B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r457637542-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1004,6 +1121,9 @@
     <t xml:space="preserve">This is a recently built hotel. Therefore, everything is newly clean, nicely decorated and well-thought out. In the room there is a very nice, well-equipped kitchen, spacious living room with extra-large desk, comfy pillow top bed with soft sheets, and a very large shower. We did not get to take advantage of the free breakfast, but that's a nice perk. The staff was extremely helpful and friendly. We will definitely stay here again. </t>
   </si>
   <si>
+    <t>pblelloch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r447881363-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1022,6 +1142,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>WanderingLama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r446938792-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1043,6 +1166,9 @@
     <t>A few minutes walk from the shops and restaurants of Old Pasadena, the Residence Inn is a nice hotel with comfortable rooms (we had a suite with a king bed, a sofa bed, and a comfortable sofa for our family of 2+2). Bath is spacious with good quality soaps and shampoos. Wifi is on the slow side unless you're willing to pay for the boosted wifi (I don't like that). The advertised hot breakfast is not particularly great (lumpy scrambled eggs for example) but, for the price we paid, I'll take it. A special shout out for the service which was prompt, friendly, and very good. Excellent choice on a price value perspective.More</t>
   </si>
   <si>
+    <t>KarBear03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r445428067-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1061,6 +1187,9 @@
     <t>OLD TOWN PASADENA!!! Hubby and I just stayed here at this hotel. Its BRAND NEW. Rooms are huge and lovely. The beds are very comfortable. The Front Desk personnel are all very nice, professional and helpful. Hotel is in a fabulous location. Walking distance to tons of restaurants and shopping. We arrived at 5pm and headed two blocks down the street to Cheesecake Factory for dinner. Then over to 85 Degrees Celsius for a coffee/tea and dessert. When we returned to the hotel, in the Lobby they had complimentary WINE, BEER and Ice Cream Sundaes! WOW! Then in the morning their complimentary BREAKFAST was fabulous! WOW again!!!! WE WILL BE BACK!!!More</t>
   </si>
   <si>
+    <t>Tanisha T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r437098003-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1074,6 +1203,9 @@
   </si>
   <si>
     <t>Nice room/small condo it felt like. Bed was very comfortable and the fire pits outside on the second floor just adds to the ambiance and stay. Only dislike is $17 for self parking per vehicle and the pool closes at 10:00pm.</t>
+  </si>
+  <si>
+    <t>Chris E</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r436192874-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
@@ -1098,6 +1230,9 @@
 The hotel is brand new and it shows.  Everything is in pristine condition and shows no signs of wear and tear.  Our room, a King Suite, was very large and stylishly decorated in shades of blue and dark wood and had all the amenities you could ask for.  A full kitchen with fridge and ice machine, stove, microwave, etc. (they even supplied a bag of microwave popcorn which I thought was awesome!)  The living area had a big wrap around couch with a convenient council table that would allow you to work on your computer while comfortable sitting on the couch.  A giant Samsung Smart TV sat upon the big desk with a comfortable office chair, and the TV was easily rotatable to be viewed from anywhere in the room.  The bed was huge and comfy, I got a great nights sleep.  The bathroom was large with a big walk-in shower (just be careful because the faucet is on the opposite side...*Disclaimer: I myself did not pay for this accommodation so my review is not based on the price/value but solely on the property/ amenities/ and staff.My wife and I stayed here on a Sunday night as it was a great short getaway from our LA home and offered a great opportunity to visit Pasadena for the first time.  We loved Old Town Pasadena for walking, shopping and eating, and it was super conveniently located right next door.The hotel is brand new and it shows.  Everything is in pristine condition and shows no signs of wear and tear.  Our room, a King Suite, was very large and stylishly decorated in shades of blue and dark wood and had all the amenities you could ask for.  A full kitchen with fridge and ice machine, stove, microwave, etc. (they even supplied a bag of microwave popcorn which I thought was awesome!)  The living area had a big wrap around couch with a convenient council table that would allow you to work on your computer while comfortable sitting on the couch.  A giant Samsung Smart TV sat upon the big desk with a comfortable office chair, and the TV was easily rotatable to be viewed from anywhere in the room.  The bed was huge and comfy, I got a great nights sleep.  The bathroom was large with a big walk-in shower (just be careful because the faucet is on the opposite side as th knob, and I naturally back up as to not get sprayed with cold water right away but did the exact opposite and backed right up into it.  I'm sure the neighbors heard me yell!!)  Also, the "lemon sage" body wash was in particularly refreshing.  So the room was just ideal.The breakfast was just as one would expect, having some fresh fruit and cereals, scrambled eggs and sausage (I made a breakfast burrito which caught on with other guests:) juices, breads, etc. and a fresh waffle iron which was awesome.  We spend most of the day on Monday out by the swimming pool and jacuzzi.  They have a big garden area with plenty of sitting areas, both lounges and tables, and a couple of fire pits which were really nice at night after dinner.  The pool is big and at least while we were there was not very frequented so we had the place to ourselves (it was November, but it was a warm day and the pool is heated).  They also have an outdoor giant chess set and ping-pong table (for next time) as well as a large fitness center.One of the coolest things they have is on Monday night, they have a "sips and snacks" cocktail in the main lounge.  The hotel offers all the guests a chance to mingle and have complimentary beer and wine and assorted snacks.  It was a great way to relax on a big couch and catch some of the Monday Night Football game!  Really appreciated that touch.  They do some different things during the week as well, I believe on Tuesdays and Wednesdays.The staff was all very friendly and very helpful.  They allowed us to check-in early and have a late check-out as well, which allowed us to enjoy the hotel facilities longer.  They always had a smile on their face and seemed genuinely happy to be there.If I was traveling on business, which I used to a lot, this place would be more than perfect!!  And for a couple traveling that wants a bit of extra room and freedom to cook or prepare snacks etc., also ideal.Overall we had a great stay.  We would not hesitate to book here again for our next Pasadena getaway based on its location and great amenities.More</t>
   </si>
   <si>
+    <t>banksfolsom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r433617124-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1119,6 +1254,9 @@
     <t>Stayed at the Residence Inn in Old Town Pasadena for three nights while attending a conference at the Pasadena Convention Center.  The hotel is about a five minute walk to most of the shops in old town and approximately 10 minutes to the convention center.  The hotel itself is fairly new so all of the common areas and the room itself was in excellent condition.  The room was very spacious, included a kitchen, living room area, bed, and bathroom.  Housekeeping was prompt and had the room ready to go by mid-morning each day.  The staff were very friendly and greeted me every time I left the hotel and re-entered the hotel.  The complimentary breakfast was a nice touch to start off the day.  If you are attending an event at the Rose Bowl, this is the closest hotel to the Rose Bowl if you are walking (15-20 minute walk).  I would not hesitate to stay at this property again if I am in the Pasadena area.More</t>
   </si>
   <si>
+    <t>2CriticalTravellers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r428564401-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1134,6 +1272,9 @@
     <t>We recently stayed at this hotel.  The staff were friendly, the room was clean, and the breakfasts were great.  The outside pool was very clean and overall this was a wonderful experience.  Secure parking is another plus.  Keep up the good work</t>
   </si>
   <si>
+    <t>Falconi66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r427997952-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1152,6 +1293,9 @@
     <t>Its a new Hotels, that makes everything nice and clean. Staff are polite and helpful. The room are typical residence Inn size, I had Studio room with modern furniture with well almost a full kitchen. Minute points: They don't have safe in the room, they have them behind the reception. That is a problem if you want to use something frequently: taking it to and back from the reception, that is annoying.   Because of the traffic jam the location is far from LA. city. Its always traffic jam and then it will take a hour to the city. The breakfast is complimentary which is correct. Bacuse the room is very small, with very little variations actually tables are in the lobby to have your breakfast. It closes very early 09:00 in weekdays and 09:30 in weekends. Breakfast was disappointing for me.More</t>
   </si>
   <si>
+    <t>SJVillagesBob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r426787076-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1167,6 +1311,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Alan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r414638322-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1182,6 +1329,9 @@
     <t>This Residence Inn was less than two months old when we checked-in. I was quite surprised by the details in the lobby and in the rooms.  The rooms were very well appointed with kitchenette, writing table and sofa. The bathroom had a large walk-in shower!The hotel is just blocks away from the old town of Pasadena, full of shops and restaurants.Definitely should be on your radar as an option in Pasadena!</t>
   </si>
   <si>
+    <t>Christina K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r410764889-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1200,6 +1350,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Major_Travel_Bug</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r408790187-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1216,6 +1369,9 @@
   </si>
   <si>
     <t>We stayed here for one night about two weeks after opening.  The rooms are very well thought out and very comfortable with a large kitchen area, small living area with large desk, comfortable bed and a large bathroom.   One can be very comfortable here either short or long term.    However, the smell of all the new furnishings and construction materials was a little too strong for us.  And since it was hot out (and noisy on the Fair Oaks Blvd side of the building) opening the window for very long was not a good solution.  Eventually the off gassing from the furnishings will subside and this will be a very solid choice in Pasadena.  On our second stay in Pasadena a few days later we chose a different hotel because we felt that the smell here was really too strong.    I think the rooms facing Walnut may be the quietest and would ask for one of those next time.  The rooms facing the pool also face a nearby construction site and the freeway beyond.  They are probably pretty quiet actually, but I wonder as the construction site progresses how that might impact this hotel.   I am glad to see this type of hotel being built.  It really has everything you need and the quality of the rooms is very high while the price point is often fairly modest for what's offered.  We paid $250 (plus $17 parking) so it's not...We stayed here for one night about two weeks after opening.  The rooms are very well thought out and very comfortable with a large kitchen area, small living area with large desk, comfortable bed and a large bathroom.   One can be very comfortable here either short or long term.    However, the smell of all the new furnishings and construction materials was a little too strong for us.  And since it was hot out (and noisy on the Fair Oaks Blvd side of the building) opening the window for very long was not a good solution.  Eventually the off gassing from the furnishings will subside and this will be a very solid choice in Pasadena.  On our second stay in Pasadena a few days later we chose a different hotel because we felt that the smell here was really too strong.    I think the rooms facing Walnut may be the quietest and would ask for one of those next time.  The rooms facing the pool also face a nearby construction site and the freeway beyond.  They are probably pretty quiet actually, but I wonder as the construction site progresses how that might impact this hotel.   I am glad to see this type of hotel being built.  It really has everything you need and the quality of the rooms is very high while the price point is often fairly modest for what's offered.  We paid $250 (plus $17 parking) so it's not cheap. I am willing to overlook that though since it is so well thought out and clean/new.  Location is good, about two blocks from the Pasadena "old town" with all it's shops, restaurants, and nightlife.More</t>
+  </si>
+  <si>
+    <t>Lakeside31</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r403212258-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
@@ -1244,6 +1400,9 @@
 We will stay there again, for sure. We loved the layout and the staff were exceptional. A huge thanks...Through our own mix-up of our reservation, we arrived to find we had no reservation and the hotel was sold out. Maggie, the manager, worked her magic to find us a room. It made all the difference to us because we were tired, hot and sweaty after participating in a sporting event nearby. This property opened only a few weeks ago. Our room was a suite, as all the rooms are. Our room was spacious enough that the three of us were super comfortable and never felt like we were on top of each other. There was a king sized bed and a sofa bed. The kitchenette came fully furnished with dishes, coffee maker, etc. the bathroom was huge with a glassed in shower that you'd expect in a much fancier place. The property is small, but they've made the most of it. There is a small pool and an outdoor area with a giant chess set. There is a nice, bright workout room with Windows that look out to the pool. There is even a self serve laundry room! The lobby is small but not cramped, with an interesting fireplace. There is a breakfast area that is a little tight at peak times. The food selection is great- the first bite we've ever seen where guests could build breakfast burritos!We will stay there again, for sure. We loved the layout and the staff were exceptional. A huge thanks to Maggie for all her help!More</t>
   </si>
   <si>
+    <t>VNepicurean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r399621199-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
   </si>
   <si>
@@ -1260,6 +1419,9 @@
   </si>
   <si>
     <t>July 2016</t>
+  </si>
+  <si>
+    <t>member9999</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d10052160-r396037945-Residence_Inn_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
@@ -1779,34 +1941,38 @@
       <c r="A2" t="n">
         <v>64990</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
@@ -1823,56 +1989,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64990</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1890,50 +2060,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64990</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1947,50 +2121,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64990</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2002,56 +2180,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64990</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2071,50 +2253,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64990</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
         <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" t="s">
-        <v>82</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2132,56 +2318,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64990</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2197,56 +2387,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64990</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2258,56 +2452,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64990</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2319,56 +2517,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64990</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2384,56 +2586,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64990</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2451,56 +2657,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64990</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2518,50 +2728,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64990</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2573,56 +2787,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64990</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>154</v>
       </c>
-      <c r="K15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>142</v>
-      </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2636,50 +2854,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64990</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2697,56 +2919,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64990</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2758,56 +2984,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64990</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2823,56 +3053,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64990</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2888,56 +3122,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64990</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2953,56 +3191,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="X20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64990</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3014,56 +3256,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="X21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64990</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="J22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3081,50 +3327,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64990</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="J23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3144,50 +3394,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64990</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3199,56 +3453,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64990</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3266,50 +3524,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64990</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3329,50 +3591,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64990</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3390,56 +3656,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="X27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="Y27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64990</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3455,47 +3725,51 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="X28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64990</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
@@ -3514,50 +3788,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64990</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3577,50 +3855,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64990</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>296</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3632,56 +3914,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="X31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64990</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>305</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="O32" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3699,50 +3985,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64990</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>312</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3760,50 +4050,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64990</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>319</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3821,50 +4115,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64990</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3878,50 +4176,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64990</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>331</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3939,50 +4241,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64990</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>339</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3996,50 +4302,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64990</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>345</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="J38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="K38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="O38" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4059,50 +4369,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64990</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="J39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K39" t="s">
+        <v>356</v>
+      </c>
+      <c r="L39" t="s">
+        <v>357</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
         <v>317</v>
       </c>
-      <c r="K39" t="s">
-        <v>318</v>
-      </c>
-      <c r="L39" t="s">
-        <v>319</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>285</v>
-      </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4116,50 +4430,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64990</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4173,50 +4491,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64990</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4234,50 +4556,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64990</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>372</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="J42" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="K42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4297,50 +4623,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64990</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>380</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="J43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4360,50 +4690,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64990</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>387</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="J44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="K44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="O44" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4417,50 +4751,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64990</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>393</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="O45" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4478,50 +4816,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64990</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>400</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="J46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="K46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="O46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4539,50 +4881,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64990</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>408</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="J47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="K47" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="O47" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4602,41 +4948,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64990</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>414</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="J48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="K48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
@@ -4655,50 +5005,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64990</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>421</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="J49" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="K49" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="O49" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4718,50 +5072,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64990</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>427</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="J50" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="K50" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -4781,50 +5139,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64990</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>433</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="J51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="K51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="L51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="O51" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -4838,50 +5200,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64990</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="J52" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="K52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -4901,50 +5267,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64990</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>447</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -4958,50 +5328,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64990</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>454</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="J54" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="K54" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="O54" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5015,50 +5389,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64990</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>461</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="J55" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="K55" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="L55" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5072,7 +5450,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
